--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22FC864-6F89-4560-A350-F74E6B282D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7190517-8823-404F-91D2-E140BFC98E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5312" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5330" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -949,8 +949,8 @@
   <dimension ref="A1:AI893"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A828" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB851" sqref="AB851"/>
+      <pane ySplit="1" topLeftCell="A834" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA855" sqref="AA855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75467,9 +75467,72 @@
       </c>
     </row>
     <row r="853" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>852</v>
+      </c>
+      <c r="B853">
+        <v>1</v>
+      </c>
+      <c r="C853" s="1">
+        <v>45934</v>
+      </c>
+      <c r="D853" s="2">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="E853" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="F853" t="s">
+        <v>50</v>
+      </c>
+      <c r="G853" t="s">
+        <v>98</v>
+      </c>
+      <c r="H853" t="s">
+        <v>60</v>
+      </c>
+      <c r="I853" t="s">
+        <v>64</v>
+      </c>
+      <c r="J853" t="s">
+        <v>53</v>
+      </c>
+      <c r="K853">
+        <v>9</v>
+      </c>
+      <c r="L853">
+        <v>3</v>
+      </c>
+      <c r="M853">
+        <v>7</v>
+      </c>
+      <c r="N853">
+        <v>8</v>
+      </c>
+      <c r="O853">
+        <v>3</v>
+      </c>
+      <c r="P853">
+        <v>9</v>
+      </c>
+      <c r="Q853">
+        <v>1973</v>
+      </c>
+      <c r="R853">
+        <v>98</v>
+      </c>
+      <c r="S853">
+        <v>35</v>
+      </c>
+      <c r="T853" t="s">
+        <v>58</v>
+      </c>
+      <c r="U853">
+        <v>17402</v>
+      </c>
+      <c r="V853">
+        <v>1</v>
       </c>
       <c r="AC853">
         <f t="shared" ref="AC853:AC884" si="62">IF(C853=C852, AC852+1, 1)</f>
@@ -75477,17 +75540,92 @@
       </c>
       <c r="AD853">
         <f t="shared" ref="AD853:AD884" si="63">IF(T853="Loss",AD852+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE853">
         <f t="shared" ref="AE853:AE884" si="64">IF(T853="Win", AE852+1, 0)</f>
         <v>0</v>
       </c>
+      <c r="AF853">
+        <v>4.57</v>
+      </c>
+      <c r="AG853">
+        <v>48</v>
+      </c>
+      <c r="AH853">
+        <v>63</v>
+      </c>
+      <c r="AI853">
+        <v>51</v>
+      </c>
     </row>
     <row r="854" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>853</v>
+      </c>
+      <c r="B854">
+        <v>1</v>
+      </c>
+      <c r="C854" s="1">
+        <v>45934</v>
+      </c>
+      <c r="D854" s="2">
+        <v>0.79027777777777775</v>
+      </c>
       <c r="E854" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="F854" t="s">
+        <v>59</v>
+      </c>
+      <c r="G854" t="s">
+        <v>98</v>
+      </c>
+      <c r="H854" t="s">
+        <v>54</v>
+      </c>
+      <c r="I854" t="s">
+        <v>101</v>
+      </c>
+      <c r="J854" t="s">
+        <v>57</v>
+      </c>
+      <c r="K854">
+        <v>5</v>
+      </c>
+      <c r="L854">
+        <v>3</v>
+      </c>
+      <c r="M854">
+        <v>8</v>
+      </c>
+      <c r="N854">
+        <v>4</v>
+      </c>
+      <c r="O854">
+        <v>2</v>
+      </c>
+      <c r="P854">
+        <v>3</v>
+      </c>
+      <c r="Q854">
+        <v>1125</v>
+      </c>
+      <c r="R854">
+        <v>56</v>
+      </c>
+      <c r="S854">
+        <v>33</v>
+      </c>
+      <c r="T854" t="s">
+        <v>63</v>
+      </c>
+      <c r="U854">
+        <v>17076</v>
+      </c>
+      <c r="V854">
+        <v>1</v>
       </c>
       <c r="AC854">
         <f t="shared" si="62"/>
@@ -75499,13 +75637,103 @@
       </c>
       <c r="AE854">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF854">
+        <v>-2.02</v>
+      </c>
+      <c r="AG854">
+        <v>27</v>
+      </c>
+      <c r="AH854">
+        <v>41</v>
+      </c>
+      <c r="AI854">
+        <v>40</v>
       </c>
     </row>
     <row r="855" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>854</v>
+      </c>
+      <c r="B855">
+        <v>1</v>
+      </c>
+      <c r="C855" s="1">
+        <v>45934</v>
+      </c>
+      <c r="D855" s="2">
+        <v>0.81527777777777777</v>
+      </c>
       <c r="E855" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="F855" t="s">
+        <v>50</v>
+      </c>
+      <c r="G855" t="s">
+        <v>97</v>
+      </c>
+      <c r="H855" t="s">
+        <v>54</v>
+      </c>
+      <c r="I855" t="s">
+        <v>64</v>
+      </c>
+      <c r="J855" t="s">
+        <v>53</v>
+      </c>
+      <c r="K855">
+        <v>6</v>
+      </c>
+      <c r="L855">
+        <v>5</v>
+      </c>
+      <c r="M855">
+        <v>9</v>
+      </c>
+      <c r="N855">
+        <v>5</v>
+      </c>
+      <c r="O855">
+        <v>5</v>
+      </c>
+      <c r="P855">
+        <v>9</v>
+      </c>
+      <c r="Q855">
+        <v>1527</v>
+      </c>
+      <c r="R855">
+        <v>66</v>
+      </c>
+      <c r="S855">
+        <v>33</v>
+      </c>
+      <c r="T855" t="s">
+        <v>63</v>
+      </c>
+      <c r="U855">
+        <v>17431</v>
+      </c>
+      <c r="V855">
+        <v>1</v>
+      </c>
+      <c r="W855">
+        <v>0.82</v>
+      </c>
+      <c r="X855">
+        <v>17705</v>
+      </c>
+      <c r="Y855">
+        <v>16750</v>
+      </c>
+      <c r="Z855">
+        <v>16725</v>
+      </c>
+      <c r="AB855">
+        <v>69.599999999999994</v>
       </c>
       <c r="AC855">
         <f t="shared" si="62"/>
@@ -75517,7 +75745,19 @@
       </c>
       <c r="AE855">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF855">
+        <v>-3.98</v>
+      </c>
+      <c r="AG855">
+        <v>28</v>
+      </c>
+      <c r="AH855">
+        <v>48</v>
+      </c>
+      <c r="AI855">
+        <v>55</v>
       </c>
     </row>
     <row r="856" spans="1:35" x14ac:dyDescent="0.25">
@@ -75527,7 +75767,7 @@
       </c>
       <c r="AC856">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD856">
         <f t="shared" si="63"/>
@@ -75545,7 +75785,7 @@
       </c>
       <c r="AC857">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD857">
         <f t="shared" si="63"/>
@@ -75563,7 +75803,7 @@
       </c>
       <c r="AC858">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD858">
         <f t="shared" si="63"/>
@@ -75581,7 +75821,7 @@
       </c>
       <c r="AC859">
         <f t="shared" si="62"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD859">
         <f t="shared" si="63"/>
@@ -75599,7 +75839,7 @@
       </c>
       <c r="AC860">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD860">
         <f t="shared" si="63"/>
@@ -75617,7 +75857,7 @@
       </c>
       <c r="AC861">
         <f t="shared" si="62"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD861">
         <f t="shared" si="63"/>
@@ -75635,7 +75875,7 @@
       </c>
       <c r="AC862">
         <f t="shared" si="62"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AD862">
         <f t="shared" si="63"/>
@@ -75653,7 +75893,7 @@
       </c>
       <c r="AC863">
         <f t="shared" si="62"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD863">
         <f t="shared" si="63"/>
@@ -75671,7 +75911,7 @@
       </c>
       <c r="AC864">
         <f t="shared" si="62"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD864">
         <f t="shared" si="63"/>
@@ -75689,7 +75929,7 @@
       </c>
       <c r="AC865">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD865">
         <f t="shared" si="63"/>
@@ -75707,7 +75947,7 @@
       </c>
       <c r="AC866">
         <f t="shared" si="62"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD866">
         <f t="shared" si="63"/>
@@ -75725,7 +75965,7 @@
       </c>
       <c r="AC867">
         <f t="shared" si="62"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD867">
         <f t="shared" si="63"/>
@@ -75743,7 +75983,7 @@
       </c>
       <c r="AC868">
         <f t="shared" si="62"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD868">
         <f t="shared" si="63"/>
@@ -75761,7 +76001,7 @@
       </c>
       <c r="AC869">
         <f t="shared" si="62"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD869">
         <f t="shared" si="63"/>
@@ -75779,7 +76019,7 @@
       </c>
       <c r="AC870">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD870">
         <f t="shared" si="63"/>
@@ -75797,7 +76037,7 @@
       </c>
       <c r="AC871">
         <f t="shared" si="62"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD871">
         <f t="shared" si="63"/>
@@ -75815,7 +76055,7 @@
       </c>
       <c r="AC872">
         <f t="shared" si="62"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD872">
         <f t="shared" si="63"/>
@@ -75833,7 +76073,7 @@
       </c>
       <c r="AC873">
         <f t="shared" si="62"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD873">
         <f t="shared" si="63"/>
@@ -75851,7 +76091,7 @@
       </c>
       <c r="AC874">
         <f t="shared" si="62"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AD874">
         <f t="shared" si="63"/>
@@ -75865,7 +76105,7 @@
     <row r="875" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC875">
         <f t="shared" si="62"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AD875">
         <f t="shared" si="63"/>
@@ -75879,7 +76119,7 @@
     <row r="876" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC876">
         <f t="shared" si="62"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD876">
         <f t="shared" si="63"/>
@@ -75893,7 +76133,7 @@
     <row r="877" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC877">
         <f t="shared" si="62"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD877">
         <f t="shared" si="63"/>
@@ -75907,7 +76147,7 @@
     <row r="878" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC878">
         <f t="shared" si="62"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD878">
         <f t="shared" si="63"/>
@@ -75921,7 +76161,7 @@
     <row r="879" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC879">
         <f t="shared" si="62"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AD879">
         <f t="shared" si="63"/>
@@ -75935,7 +76175,7 @@
     <row r="880" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC880">
         <f t="shared" si="62"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD880">
         <f t="shared" si="63"/>
@@ -75949,7 +76189,7 @@
     <row r="881" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC881">
         <f t="shared" si="62"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD881">
         <f t="shared" si="63"/>
@@ -75963,7 +76203,7 @@
     <row r="882" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC882">
         <f t="shared" si="62"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AD882">
         <f t="shared" si="63"/>
@@ -75977,7 +76217,7 @@
     <row r="883" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC883">
         <f t="shared" si="62"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AD883">
         <f t="shared" si="63"/>
@@ -75991,7 +76231,7 @@
     <row r="884" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC884">
         <f t="shared" si="62"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD884">
         <f t="shared" si="63"/>
@@ -76005,7 +76245,7 @@
     <row r="885" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC885">
         <f t="shared" ref="AC885:AC893" si="65">IF(C885=C884, AC884+1, 1)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AD885">
         <f t="shared" ref="AD885:AD893" si="66">IF(T885="Loss",AD884+1,0)</f>
@@ -76019,7 +76259,7 @@
     <row r="886" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC886">
         <f t="shared" si="65"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AD886">
         <f t="shared" si="66"/>
@@ -76033,7 +76273,7 @@
     <row r="887" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC887">
         <f t="shared" si="65"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD887">
         <f t="shared" si="66"/>
@@ -76047,7 +76287,7 @@
     <row r="888" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC888">
         <f t="shared" si="65"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AD888">
         <f t="shared" si="66"/>
@@ -76061,7 +76301,7 @@
     <row r="889" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC889">
         <f t="shared" si="65"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
@@ -76075,7 +76315,7 @@
     <row r="890" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC890">
         <f t="shared" si="65"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
@@ -76089,7 +76329,7 @@
     <row r="891" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC891">
         <f t="shared" si="65"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
@@ -76103,7 +76343,7 @@
     <row r="892" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -76117,7 +76357,7 @@
     <row r="893" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7190517-8823-404F-91D2-E140BFC98E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A1AF3-6C13-4002-BFE3-1A88AF8FBD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5330" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -949,8 +949,8 @@
   <dimension ref="A1:AI893"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A834" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA855" sqref="AA855"/>
+      <pane ySplit="1" topLeftCell="A840" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF856" sqref="AF856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75761,9 +75761,72 @@
       </c>
     </row>
     <row r="856" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>855</v>
+      </c>
+      <c r="B856">
+        <v>2</v>
+      </c>
+      <c r="C856" s="1">
+        <v>45935</v>
+      </c>
+      <c r="D856" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
       <c r="E856" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="F856" t="s">
+        <v>59</v>
+      </c>
+      <c r="G856" t="s">
+        <v>97</v>
+      </c>
+      <c r="H856" t="s">
+        <v>54</v>
+      </c>
+      <c r="I856" t="s">
+        <v>105</v>
+      </c>
+      <c r="J856" t="s">
+        <v>57</v>
+      </c>
+      <c r="K856">
+        <v>12</v>
+      </c>
+      <c r="L856">
+        <v>0</v>
+      </c>
+      <c r="M856">
+        <v>8</v>
+      </c>
+      <c r="N856">
+        <v>6</v>
+      </c>
+      <c r="O856">
+        <v>4</v>
+      </c>
+      <c r="P856">
+        <v>7</v>
+      </c>
+      <c r="Q856">
+        <v>1747</v>
+      </c>
+      <c r="R856">
+        <v>79</v>
+      </c>
+      <c r="S856">
+        <v>38</v>
+      </c>
+      <c r="T856" t="s">
+        <v>63</v>
+      </c>
+      <c r="U856">
+        <v>8273</v>
+      </c>
+      <c r="V856">
+        <v>3</v>
       </c>
       <c r="AC856">
         <f t="shared" si="62"/>
@@ -75775,13 +75838,76 @@
       </c>
       <c r="AE856">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>856</v>
+      </c>
+      <c r="B857">
+        <v>2</v>
+      </c>
+      <c r="C857" s="1">
+        <v>45935</v>
+      </c>
+      <c r="D857" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
       <c r="E857" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.8888888888888878E-2</v>
+      </c>
+      <c r="F857" t="s">
+        <v>59</v>
+      </c>
+      <c r="G857" t="s">
+        <v>97</v>
+      </c>
+      <c r="H857" t="s">
+        <v>54</v>
+      </c>
+      <c r="I857" t="s">
+        <v>64</v>
+      </c>
+      <c r="J857" t="s">
+        <v>57</v>
+      </c>
+      <c r="K857">
+        <v>13</v>
+      </c>
+      <c r="L857">
+        <v>4</v>
+      </c>
+      <c r="M857">
+        <v>5</v>
+      </c>
+      <c r="N857">
+        <v>7</v>
+      </c>
+      <c r="O857">
+        <v>0</v>
+      </c>
+      <c r="P857">
+        <v>8</v>
+      </c>
+      <c r="Q857">
+        <v>2112</v>
+      </c>
+      <c r="R857">
+        <v>91</v>
+      </c>
+      <c r="S857">
+        <v>35</v>
+      </c>
+      <c r="T857" t="s">
+        <v>63</v>
+      </c>
+      <c r="U857">
+        <v>8625</v>
+      </c>
+      <c r="V857">
+        <v>3</v>
       </c>
       <c r="AC857">
         <f t="shared" si="62"/>
@@ -75793,7 +75919,7 @@
       </c>
       <c r="AE857">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="858" spans="1:35" x14ac:dyDescent="0.25">
@@ -75803,7 +75929,7 @@
       </c>
       <c r="AC858">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD858">
         <f t="shared" si="63"/>
@@ -75821,7 +75947,7 @@
       </c>
       <c r="AC859">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD859">
         <f t="shared" si="63"/>
@@ -75839,7 +75965,7 @@
       </c>
       <c r="AC860">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD860">
         <f t="shared" si="63"/>
@@ -75857,7 +75983,7 @@
       </c>
       <c r="AC861">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD861">
         <f t="shared" si="63"/>
@@ -75875,7 +76001,7 @@
       </c>
       <c r="AC862">
         <f t="shared" si="62"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD862">
         <f t="shared" si="63"/>
@@ -75893,7 +76019,7 @@
       </c>
       <c r="AC863">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD863">
         <f t="shared" si="63"/>
@@ -75911,7 +76037,7 @@
       </c>
       <c r="AC864">
         <f t="shared" si="62"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD864">
         <f t="shared" si="63"/>
@@ -75929,7 +76055,7 @@
       </c>
       <c r="AC865">
         <f t="shared" si="62"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD865">
         <f t="shared" si="63"/>
@@ -75947,7 +76073,7 @@
       </c>
       <c r="AC866">
         <f t="shared" si="62"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD866">
         <f t="shared" si="63"/>
@@ -75965,7 +76091,7 @@
       </c>
       <c r="AC867">
         <f t="shared" si="62"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD867">
         <f t="shared" si="63"/>
@@ -75983,7 +76109,7 @@
       </c>
       <c r="AC868">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD868">
         <f t="shared" si="63"/>
@@ -76001,7 +76127,7 @@
       </c>
       <c r="AC869">
         <f t="shared" si="62"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD869">
         <f t="shared" si="63"/>
@@ -76019,7 +76145,7 @@
       </c>
       <c r="AC870">
         <f t="shared" si="62"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD870">
         <f t="shared" si="63"/>
@@ -76037,7 +76163,7 @@
       </c>
       <c r="AC871">
         <f t="shared" si="62"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AD871">
         <f t="shared" si="63"/>
@@ -76055,7 +76181,7 @@
       </c>
       <c r="AC872">
         <f t="shared" si="62"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD872">
         <f t="shared" si="63"/>
@@ -76073,7 +76199,7 @@
       </c>
       <c r="AC873">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD873">
         <f t="shared" si="63"/>
@@ -76091,7 +76217,7 @@
       </c>
       <c r="AC874">
         <f t="shared" si="62"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD874">
         <f t="shared" si="63"/>
@@ -76105,7 +76231,7 @@
     <row r="875" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC875">
         <f t="shared" si="62"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD875">
         <f t="shared" si="63"/>
@@ -76119,7 +76245,7 @@
     <row r="876" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC876">
         <f t="shared" si="62"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD876">
         <f t="shared" si="63"/>
@@ -76133,7 +76259,7 @@
     <row r="877" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC877">
         <f t="shared" si="62"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD877">
         <f t="shared" si="63"/>
@@ -76147,7 +76273,7 @@
     <row r="878" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC878">
         <f t="shared" si="62"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD878">
         <f t="shared" si="63"/>
@@ -76161,7 +76287,7 @@
     <row r="879" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC879">
         <f t="shared" si="62"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD879">
         <f t="shared" si="63"/>
@@ -76175,7 +76301,7 @@
     <row r="880" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC880">
         <f t="shared" si="62"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD880">
         <f t="shared" si="63"/>
@@ -76189,7 +76315,7 @@
     <row r="881" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC881">
         <f t="shared" si="62"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD881">
         <f t="shared" si="63"/>
@@ -76203,7 +76329,7 @@
     <row r="882" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC882">
         <f t="shared" si="62"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AD882">
         <f t="shared" si="63"/>
@@ -76217,7 +76343,7 @@
     <row r="883" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC883">
         <f t="shared" si="62"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD883">
         <f t="shared" si="63"/>
@@ -76231,7 +76357,7 @@
     <row r="884" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC884">
         <f t="shared" si="62"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD884">
         <f t="shared" si="63"/>
@@ -76245,7 +76371,7 @@
     <row r="885" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC885">
         <f t="shared" ref="AC885:AC893" si="65">IF(C885=C884, AC884+1, 1)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD885">
         <f t="shared" ref="AD885:AD893" si="66">IF(T885="Loss",AD884+1,0)</f>
@@ -76259,7 +76385,7 @@
     <row r="886" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC886">
         <f t="shared" si="65"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AD886">
         <f t="shared" si="66"/>
@@ -76273,7 +76399,7 @@
     <row r="887" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC887">
         <f t="shared" si="65"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD887">
         <f t="shared" si="66"/>
@@ -76287,7 +76413,7 @@
     <row r="888" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC888">
         <f t="shared" si="65"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AD888">
         <f t="shared" si="66"/>
@@ -76301,7 +76427,7 @@
     <row r="889" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC889">
         <f t="shared" si="65"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
@@ -76315,7 +76441,7 @@
     <row r="890" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC890">
         <f t="shared" si="65"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
@@ -76329,7 +76455,7 @@
     <row r="891" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC891">
         <f t="shared" si="65"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
@@ -76343,7 +76469,7 @@
     <row r="892" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -76357,7 +76483,7 @@
     <row r="893" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F164E-5413-4BD0-A43C-886B3AB54B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529CC685-E9DE-4FAC-8C02-C592C8EE1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -536,13 +536,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,8 +946,8 @@
   <dimension ref="A1:AI893"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A854" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A860" sqref="A860:XFD860"/>
+      <pane ySplit="1" topLeftCell="A848" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF867" sqref="AF867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75988,6 +75987,12 @@
       <c r="V858">
         <v>1</v>
       </c>
+      <c r="W858">
+        <v>1.03</v>
+      </c>
+      <c r="AB858">
+        <v>68.2</v>
+      </c>
       <c r="AC858">
         <f t="shared" si="62"/>
         <v>1</v>
@@ -76081,6 +76086,12 @@
       <c r="V859">
         <v>1</v>
       </c>
+      <c r="W859">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB859">
+        <v>60</v>
+      </c>
       <c r="AC859">
         <f t="shared" si="62"/>
         <v>1</v>
@@ -76174,6 +76185,12 @@
       <c r="V860">
         <v>1</v>
       </c>
+      <c r="W860">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AB860">
+        <v>75</v>
+      </c>
       <c r="AC860">
         <f t="shared" si="62"/>
         <v>2</v>
@@ -76186,7 +76203,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="AF860" s="5">
+      <c r="AF860">
         <v>-3.49</v>
       </c>
       <c r="AG860">
@@ -76267,6 +76284,12 @@
       <c r="V861">
         <v>1</v>
       </c>
+      <c r="W861">
+        <v>0.6</v>
+      </c>
+      <c r="AB861">
+        <v>59.1</v>
+      </c>
       <c r="AC861">
         <f t="shared" si="62"/>
         <v>3</v>
@@ -76360,6 +76383,12 @@
       <c r="V862">
         <v>1</v>
       </c>
+      <c r="W862">
+        <v>1.17</v>
+      </c>
+      <c r="AB862">
+        <v>72.7</v>
+      </c>
       <c r="AC862">
         <f t="shared" si="62"/>
         <v>4</v>
@@ -76372,11 +76401,92 @@
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
+      <c r="AF862">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AG862">
+        <v>31</v>
+      </c>
+      <c r="AH862">
+        <v>71</v>
+      </c>
+      <c r="AI862">
+        <v>33</v>
+      </c>
     </row>
     <row r="863" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>862</v>
+      </c>
+      <c r="B863">
+        <v>1</v>
+      </c>
+      <c r="C863" s="1">
+        <v>45938</v>
+      </c>
+      <c r="D863" s="2">
+        <v>0.83819444444444446</v>
+      </c>
       <c r="E863" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="F863" t="s">
+        <v>59</v>
+      </c>
+      <c r="G863" t="s">
+        <v>97</v>
+      </c>
+      <c r="H863" t="s">
+        <v>54</v>
+      </c>
+      <c r="I863" t="s">
+        <v>64</v>
+      </c>
+      <c r="J863" t="s">
+        <v>57</v>
+      </c>
+      <c r="K863">
+        <v>7</v>
+      </c>
+      <c r="L863">
+        <v>2</v>
+      </c>
+      <c r="M863">
+        <v>5</v>
+      </c>
+      <c r="N863">
+        <v>4</v>
+      </c>
+      <c r="O863">
+        <v>5</v>
+      </c>
+      <c r="P863">
+        <v>2</v>
+      </c>
+      <c r="Q863">
+        <v>1114</v>
+      </c>
+      <c r="R863">
+        <v>58</v>
+      </c>
+      <c r="S863">
+        <v>27</v>
+      </c>
+      <c r="T863" t="s">
+        <v>63</v>
+      </c>
+      <c r="U863">
+        <v>17356</v>
+      </c>
+      <c r="V863">
+        <v>1</v>
+      </c>
+      <c r="W863">
+        <v>1.07</v>
+      </c>
+      <c r="AB863">
+        <v>73.7</v>
       </c>
       <c r="AC863">
         <f t="shared" si="62"/>
@@ -76388,17 +76498,98 @@
       </c>
       <c r="AE863">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF863">
+        <v>3.05</v>
+      </c>
+      <c r="AG863">
+        <v>36</v>
+      </c>
+      <c r="AH863">
+        <v>73</v>
+      </c>
+      <c r="AI863">
+        <v>36</v>
       </c>
     </row>
     <row r="864" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>863</v>
+      </c>
+      <c r="B864">
+        <v>1</v>
+      </c>
+      <c r="C864" s="1">
+        <v>45942</v>
+      </c>
+      <c r="D864" s="2">
+        <v>0.85833333333333328</v>
+      </c>
       <c r="E864" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F864" t="s">
+        <v>59</v>
+      </c>
+      <c r="G864" t="s">
+        <v>96</v>
+      </c>
+      <c r="H864" t="s">
+        <v>54</v>
+      </c>
+      <c r="I864" t="s">
+        <v>64</v>
+      </c>
+      <c r="J864" t="s">
+        <v>57</v>
+      </c>
+      <c r="K864">
+        <v>4</v>
+      </c>
+      <c r="L864">
+        <v>0</v>
+      </c>
+      <c r="M864">
+        <v>7</v>
+      </c>
+      <c r="N864">
+        <v>7</v>
+      </c>
+      <c r="O864">
+        <v>4</v>
+      </c>
+      <c r="P864">
+        <v>7</v>
+      </c>
+      <c r="Q864">
+        <v>1215</v>
+      </c>
+      <c r="R864">
+        <v>50</v>
+      </c>
+      <c r="S864">
+        <v>36</v>
+      </c>
+      <c r="T864" t="s">
+        <v>63</v>
+      </c>
+      <c r="U864">
+        <v>17705</v>
+      </c>
+      <c r="V864">
+        <v>3</v>
+      </c>
+      <c r="W864">
+        <v>0.82</v>
+      </c>
+      <c r="AB864">
+        <v>66.7</v>
       </c>
       <c r="AC864">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD864">
         <f t="shared" si="63"/>
@@ -76406,35 +76597,182 @@
       </c>
       <c r="AE864">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="865" spans="5:31" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AF864">
+        <v>-2.68</v>
+      </c>
+      <c r="AG864">
+        <v>28</v>
+      </c>
+      <c r="AH864">
+        <v>65</v>
+      </c>
+      <c r="AI864">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="865" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>864</v>
+      </c>
+      <c r="B865">
+        <v>1</v>
+      </c>
+      <c r="C865" s="1">
+        <v>45942</v>
+      </c>
+      <c r="D865" s="2">
+        <v>0.89513888888888893</v>
+      </c>
       <c r="E865" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="F865" t="s">
+        <v>50</v>
+      </c>
+      <c r="G865" t="s">
+        <v>96</v>
+      </c>
+      <c r="I865" t="s">
+        <v>56</v>
+      </c>
+      <c r="J865" t="s">
+        <v>53</v>
+      </c>
+      <c r="K865">
+        <v>9</v>
+      </c>
+      <c r="L865">
+        <v>3</v>
+      </c>
+      <c r="M865">
+        <v>10</v>
+      </c>
+      <c r="N865">
+        <v>12</v>
+      </c>
+      <c r="O865">
+        <v>3</v>
+      </c>
+      <c r="P865">
+        <v>8</v>
+      </c>
+      <c r="Q865">
+        <v>2323</v>
+      </c>
+      <c r="R865">
+        <v>77</v>
+      </c>
+      <c r="S865">
+        <v>42</v>
+      </c>
+      <c r="T865" t="s">
+        <v>58</v>
+      </c>
+      <c r="U865">
+        <v>18064</v>
+      </c>
+      <c r="V865">
+        <v>3</v>
       </c>
       <c r="AC865">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD865">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE865">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="866" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF865">
+        <v>0.77</v>
+      </c>
+      <c r="AG865">
+        <v>37</v>
+      </c>
+      <c r="AH865">
+        <v>50</v>
+      </c>
+      <c r="AI865">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="866" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>865</v>
+      </c>
+      <c r="B866">
+        <v>1</v>
+      </c>
+      <c r="C866" s="1">
+        <v>45942</v>
+      </c>
+      <c r="D866" s="2">
+        <v>0.93680555555555556</v>
+      </c>
       <c r="E866" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.97847222222222219</v>
+      </c>
+      <c r="F866" t="s">
+        <v>50</v>
+      </c>
+      <c r="G866" t="s">
+        <v>96</v>
+      </c>
+      <c r="H866" t="s">
+        <v>60</v>
+      </c>
+      <c r="I866" t="s">
+        <v>56</v>
+      </c>
+      <c r="J866" t="s">
+        <v>57</v>
+      </c>
+      <c r="K866">
+        <v>12</v>
+      </c>
+      <c r="L866">
+        <v>6</v>
+      </c>
+      <c r="M866">
+        <v>7</v>
+      </c>
+      <c r="N866">
+        <v>3</v>
+      </c>
+      <c r="O866">
+        <v>2</v>
+      </c>
+      <c r="P866">
+        <v>5</v>
+      </c>
+      <c r="Q866">
+        <v>1560</v>
+      </c>
+      <c r="R866">
+        <v>74</v>
+      </c>
+      <c r="S866">
+        <v>40</v>
+      </c>
+      <c r="T866" t="s">
+        <v>63</v>
+      </c>
+      <c r="U866">
+        <v>17725</v>
+      </c>
+      <c r="V866">
+        <v>3</v>
       </c>
       <c r="AC866">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD866">
         <f t="shared" si="63"/>
@@ -76442,17 +76780,29 @@
       </c>
       <c r="AE866">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="867" spans="5:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AF866">
+        <v>5.54</v>
+      </c>
+      <c r="AG866">
+        <v>54</v>
+      </c>
+      <c r="AH866">
+        <v>65</v>
+      </c>
+      <c r="AI866">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="867" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E867" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC867">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD867">
         <f t="shared" si="63"/>
@@ -76463,14 +76813,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E868" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC868">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD868">
         <f t="shared" si="63"/>
@@ -76481,14 +76831,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E869" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC869">
         <f t="shared" si="62"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AD869">
         <f t="shared" si="63"/>
@@ -76499,14 +76849,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E870" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC870">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD870">
         <f t="shared" si="63"/>
@@ -76517,14 +76867,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E871" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC871">
         <f t="shared" si="62"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AD871">
         <f t="shared" si="63"/>
@@ -76535,14 +76885,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E872" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC872">
         <f t="shared" si="62"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD872">
         <f t="shared" si="63"/>
@@ -76553,14 +76903,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E873" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC873">
         <f t="shared" si="62"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD873">
         <f t="shared" si="63"/>
@@ -76571,14 +76921,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E874" s="2">
         <f t="shared" si="61"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AC874">
         <f t="shared" si="62"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD874">
         <f t="shared" si="63"/>
@@ -76589,10 +76939,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC875">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD875">
         <f t="shared" si="63"/>
@@ -76603,10 +76953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC876">
         <f t="shared" si="62"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD876">
         <f t="shared" si="63"/>
@@ -76617,10 +76967,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC877">
         <f t="shared" si="62"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD877">
         <f t="shared" si="63"/>
@@ -76631,10 +76981,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC878">
         <f t="shared" si="62"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AD878">
         <f t="shared" si="63"/>
@@ -76645,10 +76995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC879">
         <f t="shared" si="62"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD879">
         <f t="shared" si="63"/>
@@ -76659,10 +77009,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC880">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD880">
         <f t="shared" si="63"/>
@@ -76676,7 +77026,7 @@
     <row r="881" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC881">
         <f t="shared" si="62"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD881">
         <f t="shared" si="63"/>
@@ -76690,7 +77040,7 @@
     <row r="882" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC882">
         <f t="shared" si="62"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AD882">
         <f t="shared" si="63"/>
@@ -76704,7 +77054,7 @@
     <row r="883" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC883">
         <f t="shared" si="62"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD883">
         <f t="shared" si="63"/>
@@ -76718,7 +77068,7 @@
     <row r="884" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC884">
         <f t="shared" si="62"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AD884">
         <f t="shared" si="63"/>
@@ -76732,7 +77082,7 @@
     <row r="885" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC885">
         <f t="shared" ref="AC885:AC893" si="65">IF(C885=C884, AC884+1, 1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AD885">
         <f t="shared" ref="AD885:AD893" si="66">IF(T885="Loss",AD884+1,0)</f>
@@ -76746,7 +77096,7 @@
     <row r="886" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC886">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AD886">
         <f t="shared" si="66"/>
@@ -76760,7 +77110,7 @@
     <row r="887" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC887">
         <f t="shared" si="65"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AD887">
         <f t="shared" si="66"/>
@@ -76774,7 +77124,7 @@
     <row r="888" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC888">
         <f t="shared" si="65"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AD888">
         <f t="shared" si="66"/>
@@ -76788,7 +77138,7 @@
     <row r="889" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC889">
         <f t="shared" si="65"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
@@ -76802,7 +77152,7 @@
     <row r="890" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC890">
         <f t="shared" si="65"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
@@ -76816,7 +77166,7 @@
     <row r="891" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC891">
         <f t="shared" si="65"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
@@ -76830,7 +77180,7 @@
     <row r="892" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -76844,7 +77194,7 @@
     <row r="893" spans="29:31" x14ac:dyDescent="0.25">
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529CC685-E9DE-4FAC-8C02-C592C8EE1D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDFF43-F3D9-4638-8CB2-43B93E383519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -945,9 +945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI893"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A848" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF867" sqref="AF867"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W876" sqref="W876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74061,7 +74061,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="E837" s="2">
-        <f t="shared" ref="E837:E874" si="61">D837 + 1/24</f>
+        <f t="shared" ref="E837:E884" si="61">D837 + 1/24</f>
         <v>0.85902777777777772</v>
       </c>
       <c r="F837" t="s">
@@ -76677,6 +76677,12 @@
       <c r="V865">
         <v>3</v>
       </c>
+      <c r="W865">
+        <v>1.18</v>
+      </c>
+      <c r="AB865">
+        <v>76.7</v>
+      </c>
       <c r="AC865">
         <f t="shared" si="62"/>
         <v>2</v>
@@ -76770,6 +76776,12 @@
       <c r="V866">
         <v>3</v>
       </c>
+      <c r="W866">
+        <v>1.17</v>
+      </c>
+      <c r="AB866">
+        <v>71.400000000000006</v>
+      </c>
       <c r="AC866">
         <f t="shared" si="62"/>
         <v>3</v>
@@ -76796,9 +76808,78 @@
       </c>
     </row>
     <row r="867" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>866</v>
+      </c>
+      <c r="B867">
+        <v>1</v>
+      </c>
+      <c r="C867" s="1">
+        <v>45945</v>
+      </c>
+      <c r="D867" s="2">
+        <v>0.80625000000000002</v>
+      </c>
       <c r="E867" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.84791666666666665</v>
+      </c>
+      <c r="F867" t="s">
+        <v>59</v>
+      </c>
+      <c r="G867" t="s">
+        <v>101</v>
+      </c>
+      <c r="H867" t="s">
+        <v>54</v>
+      </c>
+      <c r="I867" t="s">
+        <v>64</v>
+      </c>
+      <c r="J867" t="s">
+        <v>57</v>
+      </c>
+      <c r="K867">
+        <v>3</v>
+      </c>
+      <c r="L867">
+        <v>4</v>
+      </c>
+      <c r="M867">
+        <v>11</v>
+      </c>
+      <c r="N867">
+        <v>2</v>
+      </c>
+      <c r="O867">
+        <v>3</v>
+      </c>
+      <c r="P867">
+        <v>6</v>
+      </c>
+      <c r="Q867">
+        <v>866</v>
+      </c>
+      <c r="R867">
+        <v>43</v>
+      </c>
+      <c r="S867">
+        <v>60</v>
+      </c>
+      <c r="T867" t="s">
+        <v>58</v>
+      </c>
+      <c r="U867">
+        <v>18082</v>
+      </c>
+      <c r="V867">
+        <v>1</v>
+      </c>
+      <c r="W867">
+        <v>0.43</v>
+      </c>
+      <c r="AB867">
+        <v>60</v>
       </c>
       <c r="AC867">
         <f t="shared" si="62"/>
@@ -76806,17 +76887,98 @@
       </c>
       <c r="AD867">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE867">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
+      <c r="AF867">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AG867">
+        <v>28</v>
+      </c>
+      <c r="AH867">
+        <v>63</v>
+      </c>
+      <c r="AI867">
+        <v>66</v>
+      </c>
     </row>
     <row r="868" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>867</v>
+      </c>
+      <c r="B868">
+        <v>1</v>
+      </c>
+      <c r="C868" s="1">
+        <v>45945</v>
+      </c>
+      <c r="D868" s="2">
+        <v>0.84166666666666667</v>
+      </c>
       <c r="E868" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="F868" t="s">
+        <v>50</v>
+      </c>
+      <c r="G868" t="s">
+        <v>97</v>
+      </c>
+      <c r="H868" t="s">
+        <v>54</v>
+      </c>
+      <c r="I868" t="s">
+        <v>56</v>
+      </c>
+      <c r="J868" t="s">
+        <v>53</v>
+      </c>
+      <c r="K868">
+        <v>5</v>
+      </c>
+      <c r="L868">
+        <v>1</v>
+      </c>
+      <c r="M868">
+        <v>3</v>
+      </c>
+      <c r="N868">
+        <v>13</v>
+      </c>
+      <c r="O868">
+        <v>0</v>
+      </c>
+      <c r="P868">
+        <v>3</v>
+      </c>
+      <c r="Q868">
+        <v>1459</v>
+      </c>
+      <c r="R868">
+        <v>85</v>
+      </c>
+      <c r="S868">
+        <v>50</v>
+      </c>
+      <c r="T868" t="s">
+        <v>63</v>
+      </c>
+      <c r="U868">
+        <v>17717</v>
+      </c>
+      <c r="V868">
+        <v>1</v>
+      </c>
+      <c r="W868">
+        <v>1.72</v>
+      </c>
+      <c r="AB868">
+        <v>88.2</v>
       </c>
       <c r="AC868">
         <f t="shared" si="62"/>
@@ -76828,17 +76990,86 @@
       </c>
       <c r="AE868">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>868</v>
+      </c>
+      <c r="B869">
+        <v>1</v>
+      </c>
+      <c r="C869" s="1">
+        <v>45946</v>
+      </c>
+      <c r="D869" s="2">
+        <v>0.77986111111111112</v>
+      </c>
       <c r="E869" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="F869" t="s">
+        <v>59</v>
+      </c>
+      <c r="G869" t="s">
+        <v>96</v>
+      </c>
+      <c r="H869" t="s">
+        <v>54</v>
+      </c>
+      <c r="I869" t="s">
+        <v>61</v>
+      </c>
+      <c r="J869" t="s">
+        <v>57</v>
+      </c>
+      <c r="K869">
+        <v>2</v>
+      </c>
+      <c r="L869">
+        <v>4</v>
+      </c>
+      <c r="M869">
+        <v>10</v>
+      </c>
+      <c r="N869">
+        <v>3</v>
+      </c>
+      <c r="O869">
+        <v>1</v>
+      </c>
+      <c r="P869">
+        <v>1</v>
+      </c>
+      <c r="Q869">
+        <v>723</v>
+      </c>
+      <c r="R869">
+        <v>40</v>
+      </c>
+      <c r="S869">
+        <v>40</v>
+      </c>
+      <c r="T869" t="s">
+        <v>63</v>
+      </c>
+      <c r="U869">
+        <v>17819</v>
+      </c>
+      <c r="V869">
+        <v>5</v>
+      </c>
+      <c r="W869">
+        <v>0.62</v>
+      </c>
+      <c r="AB869">
+        <v>66.7</v>
       </c>
       <c r="AC869">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD869">
         <f t="shared" si="63"/>
@@ -76846,35 +77077,179 @@
       </c>
       <c r="AE869">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF869">
+        <v>-3.87</v>
+      </c>
+      <c r="AG869">
+        <v>21</v>
+      </c>
+      <c r="AH869">
+        <v>54</v>
+      </c>
+      <c r="AI869">
+        <v>15</v>
       </c>
     </row>
     <row r="870" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>869</v>
+      </c>
+      <c r="B870">
+        <v>1</v>
+      </c>
+      <c r="C870" s="1">
+        <v>45946</v>
+      </c>
+      <c r="D870" s="2">
+        <v>0.80555555555555558</v>
+      </c>
       <c r="E870" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="F870" t="s">
+        <v>59</v>
+      </c>
+      <c r="G870" t="s">
+        <v>96</v>
+      </c>
+      <c r="H870" t="s">
+        <v>60</v>
+      </c>
+      <c r="I870" t="s">
+        <v>87</v>
+      </c>
+      <c r="J870" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q870">
+        <v>1131</v>
+      </c>
+      <c r="R870">
+        <v>59</v>
+      </c>
+      <c r="S870">
+        <v>71</v>
+      </c>
+      <c r="T870" t="s">
+        <v>58</v>
+      </c>
+      <c r="U870">
+        <v>18126</v>
+      </c>
+      <c r="V870">
+        <v>5</v>
+      </c>
+      <c r="W870">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB870">
+        <v>52.6</v>
       </c>
       <c r="AC870">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD870">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE870">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
+      <c r="AF870">
+        <v>-5.05</v>
+      </c>
+      <c r="AG870">
+        <v>36</v>
+      </c>
+      <c r="AH870">
+        <v>58</v>
+      </c>
+      <c r="AI870">
+        <v>41</v>
+      </c>
     </row>
     <row r="871" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>870</v>
+      </c>
+      <c r="B871">
+        <v>1</v>
+      </c>
+      <c r="C871" s="1">
+        <v>45946</v>
+      </c>
+      <c r="D871" s="2">
+        <v>0.83611111111111114</v>
+      </c>
       <c r="E871" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="F871" t="s">
+        <v>50</v>
+      </c>
+      <c r="G871" t="s">
+        <v>97</v>
+      </c>
+      <c r="H871" t="s">
+        <v>54</v>
+      </c>
+      <c r="I871" t="s">
+        <v>104</v>
+      </c>
+      <c r="J871" t="s">
+        <v>53</v>
+      </c>
+      <c r="K871">
+        <v>3</v>
+      </c>
+      <c r="L871">
+        <v>0</v>
+      </c>
+      <c r="M871">
+        <v>5</v>
+      </c>
+      <c r="N871">
+        <v>5</v>
+      </c>
+      <c r="O871">
+        <v>1</v>
+      </c>
+      <c r="P871">
+        <v>7</v>
+      </c>
+      <c r="Q871">
+        <v>748</v>
+      </c>
+      <c r="R871">
+        <v>39</v>
+      </c>
+      <c r="S871">
+        <v>75</v>
+      </c>
+      <c r="T871" t="s">
+        <v>63</v>
+      </c>
+      <c r="U871">
+        <v>17837</v>
+      </c>
+      <c r="V871">
+        <v>1</v>
+      </c>
+      <c r="W871">
+        <v>0.69</v>
+      </c>
+      <c r="AB871">
+        <v>63.2</v>
       </c>
       <c r="AC871">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD871">
         <f t="shared" si="63"/>
@@ -76882,17 +77257,86 @@
       </c>
       <c r="AE871">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>871</v>
+      </c>
+      <c r="B872">
+        <v>1</v>
+      </c>
+      <c r="C872" s="1">
+        <v>45947</v>
+      </c>
+      <c r="D872" s="2">
+        <v>0.9194444444444444</v>
+      </c>
       <c r="E872" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.96111111111111103</v>
+      </c>
+      <c r="F872" t="s">
+        <v>59</v>
+      </c>
+      <c r="G872" t="s">
+        <v>96</v>
+      </c>
+      <c r="H872" t="s">
+        <v>54</v>
+      </c>
+      <c r="I872" t="s">
+        <v>104</v>
+      </c>
+      <c r="J872" t="s">
+        <v>57</v>
+      </c>
+      <c r="K872">
+        <v>5</v>
+      </c>
+      <c r="L872">
+        <v>2</v>
+      </c>
+      <c r="M872">
+        <v>9</v>
+      </c>
+      <c r="N872">
+        <v>4</v>
+      </c>
+      <c r="O872">
+        <v>2</v>
+      </c>
+      <c r="P872">
+        <v>7</v>
+      </c>
+      <c r="Q872">
+        <v>1117</v>
+      </c>
+      <c r="R872">
+        <v>50</v>
+      </c>
+      <c r="S872">
+        <v>44</v>
+      </c>
+      <c r="T872" t="s">
+        <v>63</v>
+      </c>
+      <c r="U872">
+        <v>18196</v>
+      </c>
+      <c r="V872">
+        <v>4</v>
+      </c>
+      <c r="W872">
+        <v>0.74</v>
+      </c>
+      <c r="AB872">
+        <v>72.7</v>
       </c>
       <c r="AC872">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD872">
         <f t="shared" si="63"/>
@@ -76900,17 +77344,98 @@
       </c>
       <c r="AE872">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF872">
+        <v>-5.92</v>
+      </c>
+      <c r="AG872">
+        <v>35</v>
+      </c>
+      <c r="AH872">
+        <v>72</v>
+      </c>
+      <c r="AI872">
+        <v>31</v>
       </c>
     </row>
     <row r="873" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>872</v>
+      </c>
+      <c r="B873">
+        <v>1</v>
+      </c>
+      <c r="C873" s="1">
+        <v>45947</v>
+      </c>
+      <c r="D873" s="2">
+        <v>0.95972222222222225</v>
+      </c>
       <c r="E873" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>1.0013888888888889</v>
+      </c>
+      <c r="F873" t="s">
+        <v>59</v>
+      </c>
+      <c r="G873" t="s">
+        <v>96</v>
+      </c>
+      <c r="H873" t="s">
+        <v>54</v>
+      </c>
+      <c r="I873" t="s">
+        <v>64</v>
+      </c>
+      <c r="J873" t="s">
+        <v>57</v>
+      </c>
+      <c r="K873">
+        <v>6</v>
+      </c>
+      <c r="L873">
+        <v>3</v>
+      </c>
+      <c r="M873">
+        <v>10</v>
+      </c>
+      <c r="N873">
+        <v>6</v>
+      </c>
+      <c r="O873">
+        <v>2</v>
+      </c>
+      <c r="P873">
+        <v>8</v>
+      </c>
+      <c r="Q873">
+        <v>1638</v>
+      </c>
+      <c r="R873">
+        <v>68</v>
+      </c>
+      <c r="S873">
+        <v>50</v>
+      </c>
+      <c r="T873" t="s">
+        <v>63</v>
+      </c>
+      <c r="U873">
+        <v>18542</v>
+      </c>
+      <c r="V873">
+        <v>4</v>
+      </c>
+      <c r="W873">
+        <v>0.76</v>
+      </c>
+      <c r="AB873">
+        <v>58.3</v>
       </c>
       <c r="AC873">
         <f t="shared" si="62"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD873">
         <f t="shared" si="63"/>
@@ -76918,45 +77443,272 @@
       </c>
       <c r="AE873">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AF873">
+        <v>-3.04</v>
+      </c>
+      <c r="AG873">
+        <v>30</v>
+      </c>
+      <c r="AH873">
+        <v>61</v>
+      </c>
+      <c r="AI873">
+        <v>42</v>
       </c>
     </row>
     <row r="874" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>873</v>
+      </c>
+      <c r="B874">
+        <v>1</v>
+      </c>
+      <c r="C874" s="1">
+        <v>45947</v>
+      </c>
+      <c r="D874" s="2">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="E874" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>1.0409722222222222</v>
+      </c>
+      <c r="F874" t="s">
+        <v>50</v>
+      </c>
+      <c r="G874" t="s">
+        <v>96</v>
+      </c>
+      <c r="H874" t="s">
+        <v>54</v>
+      </c>
+      <c r="I874" t="s">
+        <v>64</v>
+      </c>
+      <c r="J874" t="s">
+        <v>53</v>
+      </c>
+      <c r="K874">
+        <v>6</v>
+      </c>
+      <c r="L874">
+        <v>1</v>
+      </c>
+      <c r="M874">
+        <v>3</v>
+      </c>
+      <c r="N874">
+        <v>6</v>
+      </c>
+      <c r="O874">
+        <v>1</v>
+      </c>
+      <c r="P874">
+        <v>7</v>
+      </c>
+      <c r="Q874">
+        <v>1110</v>
+      </c>
+      <c r="R874">
+        <v>55</v>
+      </c>
+      <c r="S874">
+        <v>41</v>
+      </c>
+      <c r="T874" t="s">
+        <v>58</v>
+      </c>
+      <c r="U874">
+        <v>18893</v>
+      </c>
+      <c r="V874">
+        <v>5</v>
+      </c>
+      <c r="W874">
+        <v>1.05</v>
+      </c>
+      <c r="AB874">
+        <v>75</v>
       </c>
       <c r="AC874">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD874">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE874">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
+      <c r="AF874">
+        <v>-3.16</v>
+      </c>
+      <c r="AG874">
+        <v>25</v>
+      </c>
+      <c r="AH874">
+        <v>53</v>
+      </c>
+      <c r="AI874">
+        <v>21</v>
+      </c>
     </row>
     <row r="875" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>874</v>
+      </c>
+      <c r="B875">
+        <v>1</v>
+      </c>
+      <c r="C875" s="1">
+        <v>45948</v>
+      </c>
+      <c r="D875" s="2">
+        <v>0.94166666666666665</v>
+      </c>
+      <c r="E875" s="2">
+        <f t="shared" si="61"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="F875" t="s">
+        <v>59</v>
+      </c>
+      <c r="G875" t="s">
+        <v>96</v>
+      </c>
+      <c r="H875" t="s">
+        <v>54</v>
+      </c>
+      <c r="I875" t="s">
+        <v>104</v>
+      </c>
+      <c r="J875" t="s">
+        <v>57</v>
+      </c>
+      <c r="K875">
+        <v>6</v>
+      </c>
+      <c r="L875">
+        <v>4</v>
+      </c>
+      <c r="M875">
+        <v>11</v>
+      </c>
+      <c r="N875">
+        <v>10</v>
+      </c>
+      <c r="O875">
+        <v>3</v>
+      </c>
+      <c r="P875">
+        <v>8</v>
+      </c>
+      <c r="Q875">
+        <v>1661</v>
+      </c>
+      <c r="R875">
+        <v>72</v>
+      </c>
+      <c r="S875">
+        <v>37</v>
+      </c>
+      <c r="T875" t="s">
+        <v>58</v>
+      </c>
+      <c r="U875">
+        <v>18586</v>
+      </c>
+      <c r="V875">
+        <v>5</v>
+      </c>
+      <c r="W875">
+        <v>1.03</v>
+      </c>
+      <c r="AB875">
+        <v>73.900000000000006</v>
+      </c>
       <c r="AC875">
         <f t="shared" si="62"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD875">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE875">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
+      <c r="AF875">
+        <v>-1.39</v>
+      </c>
+      <c r="AG875">
+        <v>42</v>
+      </c>
+      <c r="AH875">
+        <v>72</v>
+      </c>
+      <c r="AI875">
+        <v>33</v>
+      </c>
     </row>
     <row r="876" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>875</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+      <c r="C876" s="1">
+        <v>45948</v>
+      </c>
+      <c r="D876" s="2">
+        <v>0.97847222222222219</v>
+      </c>
+      <c r="E876" s="2">
+        <f t="shared" si="61"/>
+        <v>1.0201388888888889</v>
+      </c>
+      <c r="F876" t="s">
+        <v>59</v>
+      </c>
+      <c r="G876" t="s">
+        <v>96</v>
+      </c>
+      <c r="H876" t="s">
+        <v>60</v>
+      </c>
+      <c r="I876" t="s">
+        <v>52</v>
+      </c>
+      <c r="J876" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q876">
+        <v>1784</v>
+      </c>
+      <c r="R876">
+        <v>84</v>
+      </c>
+      <c r="S876">
+        <v>31</v>
+      </c>
+      <c r="T876" t="s">
+        <v>63</v>
+      </c>
+      <c r="U876">
+        <v>18252</v>
+      </c>
+      <c r="V876">
+        <v>3</v>
+      </c>
       <c r="AC876">
         <f t="shared" si="62"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AD876">
         <f t="shared" si="63"/>
@@ -76964,17 +77716,99 @@
       </c>
       <c r="AE876">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF876">
+        <v>5.22</v>
+      </c>
+      <c r="AG876">
+        <v>24</v>
+      </c>
+      <c r="AH876">
+        <v>78</v>
+      </c>
+      <c r="AI876">
+        <v>24</v>
       </c>
     </row>
     <row r="877" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>876</v>
+      </c>
+      <c r="B877">
+        <v>1</v>
+      </c>
+      <c r="C877" s="1">
+        <v>45949</v>
+      </c>
+      <c r="D877" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="E877" s="2">
+        <f t="shared" si="61"/>
+        <v>5.1388888888888887E-2</v>
+      </c>
+      <c r="F877" t="s">
+        <v>50</v>
+      </c>
+      <c r="G877" t="s">
+        <v>96</v>
+      </c>
+      <c r="H877" t="s">
+        <v>51</v>
+      </c>
+      <c r="I877" t="s">
+        <v>52</v>
+      </c>
+      <c r="J877" t="s">
+        <v>53</v>
+      </c>
+      <c r="K877">
+        <v>5</v>
+      </c>
+      <c r="L877">
+        <v>2</v>
+      </c>
+      <c r="M877">
+        <v>4</v>
+      </c>
+      <c r="N877">
+        <v>5</v>
+      </c>
+      <c r="O877">
+        <v>0</v>
+      </c>
+      <c r="P877">
+        <v>10</v>
+      </c>
+      <c r="Q877">
+        <v>1194</v>
+      </c>
+      <c r="R877">
+        <v>62</v>
+      </c>
+      <c r="S877">
+        <v>30</v>
+      </c>
+      <c r="T877" t="s">
+        <v>58</v>
+      </c>
+      <c r="U877">
+        <v>18522</v>
+      </c>
+      <c r="V877">
+        <v>4</v>
+      </c>
+      <c r="AA877" t="s">
+        <v>71</v>
+      </c>
       <c r="AC877">
         <f t="shared" si="62"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AD877">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE877">
         <f t="shared" si="64"/>
@@ -76982,9 +77816,13 @@
       </c>
     </row>
     <row r="878" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E878" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC878">
         <f t="shared" si="62"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD878">
         <f t="shared" si="63"/>
@@ -76996,9 +77834,13 @@
       </c>
     </row>
     <row r="879" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E879" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC879">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AD879">
         <f t="shared" si="63"/>
@@ -77010,9 +77852,13 @@
       </c>
     </row>
     <row r="880" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E880" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC880">
         <f t="shared" si="62"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AD880">
         <f t="shared" si="63"/>
@@ -77023,10 +77869,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E881" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC881">
         <f t="shared" si="62"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AD881">
         <f t="shared" si="63"/>
@@ -77037,10 +77887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E882" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC882">
         <f t="shared" si="62"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AD882">
         <f t="shared" si="63"/>
@@ -77051,10 +77905,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E883" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC883">
         <f t="shared" si="62"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AD883">
         <f t="shared" si="63"/>
@@ -77065,10 +77923,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E884" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC884">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AD884">
         <f t="shared" si="63"/>
@@ -77079,10 +77941,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC885">
         <f t="shared" ref="AC885:AC893" si="65">IF(C885=C884, AC884+1, 1)</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AD885">
         <f t="shared" ref="AD885:AD893" si="66">IF(T885="Loss",AD884+1,0)</f>
@@ -77093,10 +77955,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC886">
         <f t="shared" si="65"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AD886">
         <f t="shared" si="66"/>
@@ -77107,10 +77969,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC887">
         <f t="shared" si="65"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AD887">
         <f t="shared" si="66"/>
@@ -77121,10 +77983,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC888">
         <f t="shared" si="65"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AD888">
         <f t="shared" si="66"/>
@@ -77135,10 +77997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC889">
         <f t="shared" si="65"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
@@ -77149,10 +78011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC890">
         <f t="shared" si="65"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
@@ -77163,10 +78025,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC891">
         <f t="shared" si="65"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
@@ -77177,10 +78039,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -77191,10 +78053,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDFF43-F3D9-4638-8CB2-43B93E383519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74658559-81F8-401D-8E75-68E6A0F1692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -945,9 +945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W876" sqref="W876"/>
+      <selection pane="bottomLeft" activeCell="Z875" sqref="Z875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77706,6 +77706,12 @@
       <c r="V876">
         <v>3</v>
       </c>
+      <c r="W876">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AB876">
+        <v>61.9</v>
+      </c>
       <c r="AC876">
         <f t="shared" si="62"/>
         <v>2</v>
@@ -77799,9 +77805,15 @@
       <c r="V877">
         <v>4</v>
       </c>
+      <c r="W877">
+        <v>0.76</v>
+      </c>
       <c r="AA877" t="s">
         <v>71</v>
       </c>
+      <c r="AB877">
+        <v>57.9</v>
+      </c>
       <c r="AC877">
         <f t="shared" si="62"/>
         <v>1</v>
@@ -77816,9 +77828,78 @@
       </c>
     </row>
     <row r="878" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>877</v>
+      </c>
+      <c r="B878">
+        <v>1</v>
+      </c>
+      <c r="C878" s="1">
+        <v>45951</v>
+      </c>
+      <c r="D878" s="2">
+        <v>0.81041666666666667</v>
+      </c>
       <c r="E878" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.8520833333333333</v>
+      </c>
+      <c r="F878" t="s">
+        <v>50</v>
+      </c>
+      <c r="G878" t="s">
+        <v>97</v>
+      </c>
+      <c r="H878" t="s">
+        <v>54</v>
+      </c>
+      <c r="I878" t="s">
+        <v>61</v>
+      </c>
+      <c r="J878" t="s">
+        <v>53</v>
+      </c>
+      <c r="K878">
+        <v>5</v>
+      </c>
+      <c r="L878">
+        <v>3</v>
+      </c>
+      <c r="M878">
+        <v>7</v>
+      </c>
+      <c r="N878">
+        <v>6</v>
+      </c>
+      <c r="O878">
+        <v>2</v>
+      </c>
+      <c r="P878">
+        <v>4</v>
+      </c>
+      <c r="Q878">
+        <v>1368</v>
+      </c>
+      <c r="R878">
+        <v>59</v>
+      </c>
+      <c r="S878">
+        <v>45</v>
+      </c>
+      <c r="T878" t="s">
+        <v>63</v>
+      </c>
+      <c r="U878">
+        <v>18154</v>
+      </c>
+      <c r="V878">
+        <v>1</v>
+      </c>
+      <c r="W878">
+        <v>0.93</v>
+      </c>
+      <c r="AB878">
+        <v>69.599999999999994</v>
       </c>
       <c r="AC878">
         <f t="shared" si="62"/>
@@ -77830,7 +77911,19 @@
       </c>
       <c r="AE878">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF878">
+        <v>-1.76</v>
+      </c>
+      <c r="AG878">
+        <v>21</v>
+      </c>
+      <c r="AH878">
+        <v>52</v>
+      </c>
+      <c r="AI878">
+        <v>37</v>
       </c>
     </row>
     <row r="879" spans="1:35" x14ac:dyDescent="0.25">
@@ -77840,7 +77933,7 @@
       </c>
       <c r="AC879">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD879">
         <f t="shared" si="63"/>
@@ -77858,7 +77951,7 @@
       </c>
       <c r="AC880">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD880">
         <f t="shared" si="63"/>
@@ -77876,7 +77969,7 @@
       </c>
       <c r="AC881">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD881">
         <f t="shared" si="63"/>
@@ -77894,7 +77987,7 @@
       </c>
       <c r="AC882">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD882">
         <f t="shared" si="63"/>
@@ -77912,7 +78005,7 @@
       </c>
       <c r="AC883">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD883">
         <f t="shared" si="63"/>
@@ -77930,7 +78023,7 @@
       </c>
       <c r="AC884">
         <f t="shared" si="62"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD884">
         <f t="shared" si="63"/>
@@ -77944,7 +78037,7 @@
     <row r="885" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC885">
         <f t="shared" ref="AC885:AC893" si="65">IF(C885=C884, AC884+1, 1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD885">
         <f t="shared" ref="AD885:AD893" si="66">IF(T885="Loss",AD884+1,0)</f>
@@ -77958,7 +78051,7 @@
     <row r="886" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC886">
         <f t="shared" si="65"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD886">
         <f t="shared" si="66"/>
@@ -77972,7 +78065,7 @@
     <row r="887" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC887">
         <f t="shared" si="65"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD887">
         <f t="shared" si="66"/>
@@ -77986,7 +78079,7 @@
     <row r="888" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC888">
         <f t="shared" si="65"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD888">
         <f t="shared" si="66"/>
@@ -78000,7 +78093,7 @@
     <row r="889" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC889">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
@@ -78014,7 +78107,7 @@
     <row r="890" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC890">
         <f t="shared" si="65"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
@@ -78028,7 +78121,7 @@
     <row r="891" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC891">
         <f t="shared" si="65"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
@@ -78042,7 +78135,7 @@
     <row r="892" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -78056,7 +78149,7 @@
     <row r="893" spans="5:31" x14ac:dyDescent="0.25">
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74658559-81F8-401D-8E75-68E6A0F1692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436414FF-2250-4048-9EFD-346A447E4EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5468" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5522" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>EML</t>
+  </si>
+  <si>
+    <t>AimLabs changed how they score Utility Rating.</t>
   </si>
 </sst>
 </file>
@@ -945,9 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z875" sqref="Z875"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA881" sqref="AA881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74061,7 +74064,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="E837" s="2">
-        <f t="shared" ref="E837:E884" si="61">D837 + 1/24</f>
+        <f t="shared" ref="E837:E888" si="61">D837 + 1/24</f>
         <v>0.85902777777777772</v>
       </c>
       <c r="F837" t="s">
@@ -77927,9 +77930,78 @@
       </c>
     </row>
     <row r="879" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>878</v>
+      </c>
+      <c r="B879">
+        <v>1</v>
+      </c>
+      <c r="C879" s="1">
+        <v>45962</v>
+      </c>
+      <c r="D879" s="2">
+        <v>0.77986111111111112</v>
+      </c>
       <c r="E879" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.82152777777777775</v>
+      </c>
+      <c r="F879" t="s">
+        <v>59</v>
+      </c>
+      <c r="G879" t="s">
+        <v>96</v>
+      </c>
+      <c r="H879" t="s">
+        <v>54</v>
+      </c>
+      <c r="I879" t="s">
+        <v>87</v>
+      </c>
+      <c r="J879" t="s">
+        <v>57</v>
+      </c>
+      <c r="K879">
+        <v>4</v>
+      </c>
+      <c r="L879">
+        <v>5</v>
+      </c>
+      <c r="M879">
+        <v>11</v>
+      </c>
+      <c r="N879">
+        <v>8</v>
+      </c>
+      <c r="O879">
+        <v>1</v>
+      </c>
+      <c r="P879">
+        <v>8</v>
+      </c>
+      <c r="Q879">
+        <v>1400</v>
+      </c>
+      <c r="R879">
+        <v>58</v>
+      </c>
+      <c r="S879">
+        <v>50</v>
+      </c>
+      <c r="T879" t="s">
+        <v>58</v>
+      </c>
+      <c r="U879">
+        <v>18474</v>
+      </c>
+      <c r="V879">
+        <v>1</v>
+      </c>
+      <c r="W879">
+        <v>0.84</v>
+      </c>
+      <c r="AB879">
+        <v>75</v>
       </c>
       <c r="AC879">
         <f t="shared" si="62"/>
@@ -77937,17 +78009,98 @@
       </c>
       <c r="AD879">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE879">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
+      <c r="AF879">
+        <v>-6.57</v>
+      </c>
+      <c r="AG879">
+        <v>25</v>
+      </c>
+      <c r="AH879">
+        <v>50</v>
+      </c>
+      <c r="AI879">
+        <v>58</v>
+      </c>
     </row>
     <row r="880" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>879</v>
+      </c>
+      <c r="B880">
+        <v>1</v>
+      </c>
+      <c r="C880" s="1">
+        <v>45962</v>
+      </c>
+      <c r="D880" s="2">
+        <v>0.81805555555555554</v>
+      </c>
       <c r="E880" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.85972222222222217</v>
+      </c>
+      <c r="F880" t="s">
+        <v>59</v>
+      </c>
+      <c r="G880" t="s">
+        <v>97</v>
+      </c>
+      <c r="H880" t="s">
+        <v>54</v>
+      </c>
+      <c r="I880" t="s">
+        <v>52</v>
+      </c>
+      <c r="J880" t="s">
+        <v>57</v>
+      </c>
+      <c r="K880">
+        <v>15</v>
+      </c>
+      <c r="L880">
+        <v>2</v>
+      </c>
+      <c r="M880">
+        <v>9</v>
+      </c>
+      <c r="N880">
+        <v>2</v>
+      </c>
+      <c r="O880">
+        <v>0</v>
+      </c>
+      <c r="P880">
+        <v>4</v>
+      </c>
+      <c r="Q880">
+        <v>1522</v>
+      </c>
+      <c r="R880">
+        <v>69</v>
+      </c>
+      <c r="S880">
+        <v>29</v>
+      </c>
+      <c r="T880" t="s">
+        <v>63</v>
+      </c>
+      <c r="U880">
+        <v>18119</v>
+      </c>
+      <c r="V880">
+        <v>1</v>
+      </c>
+      <c r="W880">
+        <v>1.18</v>
+      </c>
+      <c r="AB880">
+        <v>72.7</v>
       </c>
       <c r="AC880">
         <f t="shared" si="62"/>
@@ -77959,71 +78112,377 @@
       </c>
       <c r="AE880">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="881" spans="5:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AF880">
+        <v>0.92</v>
+      </c>
+      <c r="AG880">
+        <v>24</v>
+      </c>
+      <c r="AH880">
+        <v>78</v>
+      </c>
+      <c r="AI880">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="881" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>880</v>
+      </c>
+      <c r="B881">
+        <v>1</v>
+      </c>
+      <c r="C881" s="1">
+        <v>45963</v>
+      </c>
+      <c r="D881" s="2">
+        <v>0.71736111111111112</v>
+      </c>
       <c r="E881" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="F881" t="s">
+        <v>59</v>
+      </c>
+      <c r="G881" t="s">
+        <v>96</v>
+      </c>
+      <c r="H881" t="s">
+        <v>51</v>
+      </c>
+      <c r="I881" t="s">
+        <v>61</v>
+      </c>
+      <c r="J881" t="s">
+        <v>57</v>
+      </c>
+      <c r="K881">
+        <v>6</v>
+      </c>
+      <c r="L881">
+        <v>1</v>
+      </c>
+      <c r="M881">
+        <v>9</v>
+      </c>
+      <c r="N881">
+        <v>8</v>
+      </c>
+      <c r="O881">
+        <v>2</v>
+      </c>
+      <c r="P881">
+        <v>9</v>
+      </c>
+      <c r="Q881">
+        <v>1629</v>
+      </c>
+      <c r="R881">
+        <v>70</v>
+      </c>
+      <c r="S881">
+        <v>35</v>
+      </c>
+      <c r="T881" t="s">
+        <v>58</v>
+      </c>
+      <c r="U881">
+        <v>18306</v>
+      </c>
+      <c r="V881">
+        <v>1</v>
+      </c>
+      <c r="W881">
+        <v>0.92</v>
+      </c>
+      <c r="AB881">
+        <v>69.599999999999994</v>
       </c>
       <c r="AC881">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD881">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE881">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="882" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF881">
+        <v>-5.31</v>
+      </c>
+      <c r="AG881">
+        <v>28</v>
+      </c>
+      <c r="AH881">
+        <v>82</v>
+      </c>
+      <c r="AI881">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="882" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>881</v>
+      </c>
+      <c r="B882">
+        <v>1</v>
+      </c>
+      <c r="C882" s="1">
+        <v>45963</v>
+      </c>
+      <c r="D882" s="2">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="E882" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="F882" t="s">
+        <v>50</v>
+      </c>
+      <c r="G882" t="s">
+        <v>97</v>
+      </c>
+      <c r="H882" t="s">
+        <v>54</v>
+      </c>
+      <c r="I882" t="s">
+        <v>61</v>
+      </c>
+      <c r="J882" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q882">
+        <v>1579</v>
+      </c>
+      <c r="R882">
+        <v>68</v>
+      </c>
+      <c r="S882">
+        <v>30</v>
+      </c>
+      <c r="T882" t="s">
+        <v>58</v>
+      </c>
+      <c r="U882">
+        <v>17957</v>
+      </c>
+      <c r="V882">
+        <v>1</v>
+      </c>
+      <c r="W882">
+        <v>1</v>
+      </c>
+      <c r="AB882">
+        <v>82.6</v>
       </c>
       <c r="AC882">
         <f t="shared" si="62"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD882">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE882">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="883" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF882">
+        <v>-1.99</v>
+      </c>
+      <c r="AG882">
+        <v>48</v>
+      </c>
+      <c r="AH882">
+        <v>55</v>
+      </c>
+      <c r="AI882">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="883" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>882</v>
+      </c>
+      <c r="B883">
+        <v>1</v>
+      </c>
+      <c r="C883" s="1">
+        <v>45963</v>
+      </c>
+      <c r="D883" s="2">
+        <v>0.89027777777777772</v>
+      </c>
       <c r="E883" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.93194444444444435</v>
+      </c>
+      <c r="F883" t="s">
+        <v>59</v>
+      </c>
+      <c r="G883" t="s">
+        <v>101</v>
+      </c>
+      <c r="H883" t="s">
+        <v>54</v>
+      </c>
+      <c r="I883" t="s">
+        <v>87</v>
+      </c>
+      <c r="J883" t="s">
+        <v>53</v>
+      </c>
+      <c r="K883">
+        <v>10</v>
+      </c>
+      <c r="L883">
+        <v>3</v>
+      </c>
+      <c r="M883">
+        <v>9</v>
+      </c>
+      <c r="N883">
+        <v>6</v>
+      </c>
+      <c r="O883">
+        <v>1</v>
+      </c>
+      <c r="P883">
+        <v>7</v>
+      </c>
+      <c r="Q883">
+        <v>1785</v>
+      </c>
+      <c r="R883">
+        <v>85</v>
+      </c>
+      <c r="S883">
+        <v>37</v>
+      </c>
+      <c r="T883" t="s">
+        <v>58</v>
+      </c>
+      <c r="U883">
+        <v>17594</v>
+      </c>
+      <c r="V883">
+        <v>1</v>
+      </c>
+      <c r="W883">
+        <v>1.17</v>
+      </c>
+      <c r="AB883">
+        <v>76.2</v>
       </c>
       <c r="AC883">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD883">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE883">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="884" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF883">
+        <v>-1.86</v>
+      </c>
+      <c r="AG883">
+        <v>30</v>
+      </c>
+      <c r="AH883">
+        <v>66</v>
+      </c>
+      <c r="AI883">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="884" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>883</v>
+      </c>
+      <c r="B884">
+        <v>1</v>
+      </c>
+      <c r="C884" s="1">
+        <v>45963</v>
+      </c>
+      <c r="D884" s="2">
+        <v>0.92013888888888884</v>
+      </c>
       <c r="E884" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="F884" t="s">
+        <v>59</v>
+      </c>
+      <c r="G884" t="s">
+        <v>101</v>
+      </c>
+      <c r="H884" t="s">
+        <v>54</v>
+      </c>
+      <c r="I884" t="s">
+        <v>87</v>
+      </c>
+      <c r="J884" t="s">
+        <v>57</v>
+      </c>
+      <c r="K884">
+        <v>8</v>
+      </c>
+      <c r="L884">
+        <v>4</v>
+      </c>
+      <c r="M884">
+        <v>7</v>
+      </c>
+      <c r="N884">
+        <v>0</v>
+      </c>
+      <c r="O884">
+        <v>1</v>
+      </c>
+      <c r="P884">
+        <v>6</v>
+      </c>
+      <c r="Q884">
+        <v>1323</v>
+      </c>
+      <c r="R884">
+        <v>63</v>
+      </c>
+      <c r="S884">
+        <v>27</v>
+      </c>
+      <c r="T884" t="s">
+        <v>63</v>
+      </c>
+      <c r="U884">
+        <v>17183</v>
+      </c>
+      <c r="V884">
+        <v>1</v>
+      </c>
+      <c r="W884">
+        <v>0.81</v>
+      </c>
+      <c r="AB884">
+        <v>71.400000000000006</v>
       </c>
       <c r="AC884">
         <f t="shared" si="62"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD884">
         <f t="shared" si="63"/>
@@ -78031,41 +78490,266 @@
       </c>
       <c r="AE884">
         <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="885" spans="5:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>884</v>
+      </c>
+      <c r="B885">
+        <v>1</v>
+      </c>
+      <c r="C885" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D885" s="2">
+        <v>0.77222222222222225</v>
+      </c>
+      <c r="E885" s="2">
+        <f t="shared" si="61"/>
+        <v>0.81388888888888888</v>
+      </c>
+      <c r="F885" t="s">
+        <v>50</v>
+      </c>
+      <c r="G885" t="s">
+        <v>96</v>
+      </c>
+      <c r="H885" t="s">
+        <v>60</v>
+      </c>
+      <c r="I885" t="s">
+        <v>52</v>
+      </c>
+      <c r="J885" t="s">
+        <v>53</v>
+      </c>
+      <c r="K885">
+        <v>10</v>
+      </c>
+      <c r="L885">
+        <v>2</v>
+      </c>
+      <c r="M885">
+        <v>9</v>
+      </c>
+      <c r="N885">
+        <v>5</v>
+      </c>
+      <c r="O885">
+        <v>1</v>
+      </c>
+      <c r="P885">
+        <v>7</v>
+      </c>
+      <c r="Q885">
+        <v>1795</v>
+      </c>
+      <c r="R885">
+        <v>89</v>
+      </c>
+      <c r="S885">
+        <v>26</v>
+      </c>
+      <c r="T885" t="s">
+        <v>58</v>
+      </c>
+      <c r="U885">
+        <v>17511</v>
+      </c>
+      <c r="V885">
+        <v>2</v>
+      </c>
       <c r="AC885">
         <f t="shared" ref="AC885:AC893" si="65">IF(C885=C884, AC884+1, 1)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD885">
         <f t="shared" ref="AD885:AD893" si="66">IF(T885="Loss",AD884+1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE885">
         <f t="shared" ref="AE885:AE893" si="67">IF(T885="Win", AE884+1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="886" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF885">
+        <v>-2.77</v>
+      </c>
+    </row>
+    <row r="886" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>885</v>
+      </c>
+      <c r="B886">
+        <v>1</v>
+      </c>
+      <c r="C886" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D886" s="2">
+        <v>0.79583333333333328</v>
+      </c>
+      <c r="E886" s="2">
+        <f t="shared" si="61"/>
+        <v>0.83749999999999991</v>
+      </c>
+      <c r="F886" t="s">
+        <v>59</v>
+      </c>
+      <c r="G886" t="s">
+        <v>96</v>
+      </c>
+      <c r="I886" t="s">
+        <v>104</v>
+      </c>
+      <c r="J886" t="s">
+        <v>57</v>
+      </c>
+      <c r="K886">
+        <v>6</v>
+      </c>
+      <c r="L886">
+        <v>0</v>
+      </c>
+      <c r="M886">
+        <v>7</v>
+      </c>
+      <c r="N886">
+        <v>2</v>
+      </c>
+      <c r="O886">
+        <v>0</v>
+      </c>
+      <c r="P886">
+        <v>6</v>
+      </c>
+      <c r="Q886">
+        <v>652</v>
+      </c>
+      <c r="R886">
+        <v>32</v>
+      </c>
+      <c r="S886">
+        <v>37</v>
+      </c>
+      <c r="T886" t="s">
+        <v>58</v>
+      </c>
+      <c r="U886">
+        <v>17131</v>
+      </c>
+      <c r="V886">
+        <v>2</v>
+      </c>
+      <c r="W886">
+        <v>0.53</v>
+      </c>
+      <c r="AB886">
+        <v>50</v>
+      </c>
       <c r="AC886">
         <f t="shared" si="65"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD886">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE886">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="887" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF886">
+        <v>-7.19</v>
+      </c>
+      <c r="AG886">
+        <v>36</v>
+      </c>
+      <c r="AH886">
+        <v>52</v>
+      </c>
+      <c r="AI886">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="887" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>886</v>
+      </c>
+      <c r="B887">
+        <v>1</v>
+      </c>
+      <c r="C887" s="1">
+        <v>45964</v>
+      </c>
+      <c r="D887" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E887" s="2">
+        <f t="shared" si="61"/>
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="F887" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G887" t="s">
+        <v>101</v>
+      </c>
+      <c r="I887" t="s">
+        <v>52</v>
+      </c>
+      <c r="J887" t="s">
+        <v>57</v>
+      </c>
+      <c r="K887">
+        <v>8</v>
+      </c>
+      <c r="L887">
+        <v>5</v>
+      </c>
+      <c r="M887">
+        <v>10</v>
+      </c>
+      <c r="N887">
+        <v>6</v>
+      </c>
+      <c r="O887">
+        <v>3</v>
+      </c>
+      <c r="P887">
+        <v>6</v>
+      </c>
+      <c r="Q887">
+        <v>1709</v>
+      </c>
+      <c r="R887">
+        <v>71</v>
+      </c>
+      <c r="S887">
+        <v>42</v>
+      </c>
+      <c r="T887" t="s">
+        <v>63</v>
+      </c>
+      <c r="U887">
+        <v>16759</v>
+      </c>
+      <c r="V887">
+        <v>1</v>
+      </c>
+      <c r="W887">
+        <v>1.05</v>
+      </c>
+      <c r="AA887" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB887">
+        <v>79.2</v>
+      </c>
       <c r="AC887">
         <f t="shared" si="65"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AD887">
         <f t="shared" si="66"/>
@@ -78073,13 +78757,29 @@
       </c>
       <c r="AE887">
         <f t="shared" si="67"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="888" spans="5:31" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AF887">
+        <v>0.24</v>
+      </c>
+      <c r="AG887">
+        <v>27</v>
+      </c>
+      <c r="AH887">
+        <v>60</v>
+      </c>
+      <c r="AI887">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="888" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E888" s="2">
+        <f t="shared" si="61"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC888">
         <f t="shared" si="65"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD888">
         <f t="shared" si="66"/>
@@ -78090,10 +78790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC889">
         <f t="shared" si="65"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
@@ -78104,10 +78804,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC890">
         <f t="shared" si="65"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
@@ -78118,10 +78818,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC891">
         <f t="shared" si="65"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
@@ -78132,10 +78832,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -78146,10 +78846,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:35" x14ac:dyDescent="0.25">
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>
@@ -78175,7 +78875,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78311,6 +79011,12 @@
       <c r="E7" t="s">
         <v>72</v>
       </c>
+      <c r="H7" s="3">
+        <v>45954</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436414FF-2250-4048-9EFD-346A447E4EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D205A97F-770C-4183-9333-2F8731CA943E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7935" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5522" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5593" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -539,12 +539,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}" name="MainTable" displayName="MainTable" ref="A1:AI893" totalsRowShown="0">
-  <autoFilter ref="A1:AI893" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}" name="MainTable" displayName="MainTable" ref="A1:AI899" totalsRowShown="0">
+  <autoFilter ref="A1:AI899" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}"/>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{F242931A-789C-4FBB-B822-B98BDC16035B}" name="ID"/>
     <tableColumn id="33" xr3:uid="{FCC59173-429E-4F7A-8FB8-03CC405E84A0}" name="PlayerID"/>
@@ -946,11 +947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI893"/>
+  <dimension ref="A1:AI899"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA881" sqref="AA881"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A884" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V900" sqref="V900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74064,7 +74065,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="E837" s="2">
-        <f t="shared" ref="E837:E888" si="61">D837 + 1/24</f>
+        <f t="shared" ref="E837:E898" si="61">D837 + 1/24</f>
         <v>0.85902777777777772</v>
       </c>
       <c r="F837" t="s">
@@ -78773,9 +78774,78 @@
       </c>
     </row>
     <row r="888" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>887</v>
+      </c>
+      <c r="B888">
+        <v>1</v>
+      </c>
+      <c r="C888" s="1">
+        <v>45965</v>
+      </c>
+      <c r="D888" s="2">
+        <v>0.78125</v>
+      </c>
       <c r="E888" s="2">
         <f t="shared" si="61"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F888" t="s">
+        <v>59</v>
+      </c>
+      <c r="G888" t="s">
+        <v>96</v>
+      </c>
+      <c r="H888" t="s">
+        <v>54</v>
+      </c>
+      <c r="I888" t="s">
+        <v>64</v>
+      </c>
+      <c r="J888" t="s">
+        <v>57</v>
+      </c>
+      <c r="K888">
+        <v>7</v>
+      </c>
+      <c r="L888">
+        <v>1</v>
+      </c>
+      <c r="M888">
+        <v>9</v>
+      </c>
+      <c r="N888">
+        <v>11</v>
+      </c>
+      <c r="O888">
+        <v>5</v>
+      </c>
+      <c r="P888">
+        <v>4</v>
+      </c>
+      <c r="Q888">
+        <v>1700</v>
+      </c>
+      <c r="R888">
+        <v>70</v>
+      </c>
+      <c r="S888">
+        <v>33</v>
+      </c>
+      <c r="T888" t="s">
+        <v>63</v>
+      </c>
+      <c r="U888">
+        <v>17125</v>
+      </c>
+      <c r="V888">
+        <v>1</v>
+      </c>
+      <c r="W888">
+        <v>1.22</v>
+      </c>
+      <c r="AB888">
+        <v>75</v>
       </c>
       <c r="AC888">
         <f t="shared" si="65"/>
@@ -78787,55 +78857,365 @@
       </c>
       <c r="AE888">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF888">
+        <v>1.41</v>
+      </c>
+      <c r="AG888">
+        <v>28</v>
+      </c>
+      <c r="AH888">
+        <v>68</v>
+      </c>
+      <c r="AI888">
+        <v>52</v>
       </c>
     </row>
     <row r="889" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>888</v>
+      </c>
+      <c r="B889">
+        <v>1</v>
+      </c>
+      <c r="C889" s="1">
+        <v>45965</v>
+      </c>
+      <c r="D889" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="E889" s="2">
+        <f t="shared" si="61"/>
+        <v>0.85069444444444442</v>
+      </c>
+      <c r="F889" t="s">
+        <v>59</v>
+      </c>
+      <c r="G889" t="s">
+        <v>101</v>
+      </c>
+      <c r="H889" t="s">
+        <v>54</v>
+      </c>
+      <c r="I889" t="s">
+        <v>87</v>
+      </c>
+      <c r="J889" t="s">
+        <v>57</v>
+      </c>
+      <c r="K889">
+        <v>12</v>
+      </c>
+      <c r="L889">
+        <v>3</v>
+      </c>
+      <c r="M889">
+        <v>11</v>
+      </c>
+      <c r="N889">
+        <v>13</v>
+      </c>
+      <c r="O889">
+        <v>5</v>
+      </c>
+      <c r="P889">
+        <v>12</v>
+      </c>
+      <c r="Q889">
+        <v>2439</v>
+      </c>
+      <c r="R889">
+        <v>84</v>
+      </c>
+      <c r="S889">
+        <v>52</v>
+      </c>
+      <c r="T889" t="s">
+        <v>58</v>
+      </c>
+      <c r="U889">
+        <v>17290</v>
+      </c>
+      <c r="V889">
+        <v>1</v>
+      </c>
+      <c r="W889">
+        <v>1.18</v>
+      </c>
+      <c r="AB889">
+        <v>69</v>
+      </c>
       <c r="AC889">
         <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="AD889">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE889">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
+      <c r="AF889">
+        <v>3.8</v>
+      </c>
+      <c r="AG889">
+        <v>26</v>
+      </c>
+      <c r="AH889">
+        <v>54</v>
+      </c>
+      <c r="AI889">
+        <v>61</v>
+      </c>
     </row>
     <row r="890" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>889</v>
+      </c>
+      <c r="B890">
+        <v>1</v>
+      </c>
+      <c r="C890" s="1">
+        <v>45965</v>
+      </c>
+      <c r="D890" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E890" s="2">
+        <f t="shared" si="61"/>
+        <v>0.90625</v>
+      </c>
+      <c r="F890" t="s">
+        <v>59</v>
+      </c>
+      <c r="G890" t="s">
+        <v>97</v>
+      </c>
+      <c r="H890" t="s">
+        <v>51</v>
+      </c>
+      <c r="I890" t="s">
+        <v>52</v>
+      </c>
+      <c r="J890" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q890">
+        <v>1494</v>
+      </c>
+      <c r="R890">
+        <v>71</v>
+      </c>
+      <c r="S890">
+        <v>54</v>
+      </c>
+      <c r="T890" t="s">
+        <v>58</v>
+      </c>
+      <c r="U890">
+        <v>16866</v>
+      </c>
+      <c r="V890">
+        <v>1</v>
+      </c>
+      <c r="W890">
+        <v>0.84</v>
+      </c>
+      <c r="AB890">
+        <v>66.7</v>
+      </c>
       <c r="AC890">
         <f t="shared" si="65"/>
         <v>3</v>
       </c>
       <c r="AD890">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE890">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
+      <c r="AF890">
+        <v>-3.64</v>
+      </c>
+      <c r="AH890">
+        <v>70</v>
+      </c>
+      <c r="AI890">
+        <v>13</v>
+      </c>
     </row>
     <row r="891" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>890</v>
+      </c>
+      <c r="B891">
+        <v>1</v>
+      </c>
+      <c r="C891" s="1">
+        <v>45965</v>
+      </c>
+      <c r="D891" s="2">
+        <v>0.89027777777777772</v>
+      </c>
+      <c r="E891" s="2">
+        <f t="shared" si="61"/>
+        <v>0.93194444444444435</v>
+      </c>
+      <c r="F891" t="s">
+        <v>59</v>
+      </c>
+      <c r="G891" t="s">
+        <v>96</v>
+      </c>
+      <c r="H891" t="s">
+        <v>60</v>
+      </c>
+      <c r="I891" t="s">
+        <v>64</v>
+      </c>
+      <c r="J891" t="s">
+        <v>57</v>
+      </c>
+      <c r="K891">
+        <v>7</v>
+      </c>
+      <c r="L891">
+        <v>1</v>
+      </c>
+      <c r="M891">
+        <v>10</v>
+      </c>
+      <c r="N891">
+        <v>8</v>
+      </c>
+      <c r="O891">
+        <v>0</v>
+      </c>
+      <c r="P891">
+        <v>8</v>
+      </c>
+      <c r="Q891">
+        <v>1845</v>
+      </c>
+      <c r="R891">
+        <v>80</v>
+      </c>
+      <c r="S891">
+        <v>53</v>
+      </c>
+      <c r="T891" t="s">
+        <v>58</v>
+      </c>
+      <c r="U891">
+        <v>16499</v>
+      </c>
+      <c r="V891">
+        <v>1</v>
+      </c>
+      <c r="W891">
+        <v>0.95</v>
+      </c>
+      <c r="AB891">
+        <v>65.2</v>
+      </c>
       <c r="AC891">
         <f t="shared" si="65"/>
         <v>4</v>
       </c>
       <c r="AD891">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE891">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
+      <c r="AF891">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="AH891">
+        <v>58</v>
+      </c>
+      <c r="AI891">
+        <v>60</v>
+      </c>
     </row>
     <row r="892" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>891</v>
+      </c>
+      <c r="B892">
+        <v>1</v>
+      </c>
+      <c r="C892" s="1">
+        <v>45966</v>
+      </c>
+      <c r="D892" s="2">
+        <v>0.79722222222222228</v>
+      </c>
+      <c r="E892" s="2">
+        <f t="shared" si="61"/>
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="F892" t="s">
+        <v>59</v>
+      </c>
+      <c r="G892" t="s">
+        <v>96</v>
+      </c>
+      <c r="H892" t="s">
+        <v>54</v>
+      </c>
+      <c r="I892" t="s">
+        <v>56</v>
+      </c>
+      <c r="J892" t="s">
+        <v>57</v>
+      </c>
+      <c r="K892">
+        <v>9</v>
+      </c>
+      <c r="L892">
+        <v>5</v>
+      </c>
+      <c r="M892">
+        <v>7</v>
+      </c>
+      <c r="N892">
+        <v>9</v>
+      </c>
+      <c r="O892">
+        <v>1</v>
+      </c>
+      <c r="P892">
+        <v>4</v>
+      </c>
+      <c r="Q892">
+        <v>1940</v>
+      </c>
+      <c r="R892">
+        <v>97</v>
+      </c>
+      <c r="S892">
+        <v>55</v>
+      </c>
+      <c r="T892" t="s">
+        <v>63</v>
+      </c>
+      <c r="U892">
+        <v>16104</v>
+      </c>
+      <c r="V892">
+        <v>1</v>
+      </c>
       <c r="AC892">
         <f t="shared" si="65"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD892">
         <f t="shared" si="66"/>
@@ -78843,13 +79223,74 @@
       </c>
       <c r="AE892">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF892">
+        <v>5.84</v>
+      </c>
+      <c r="AG892">
+        <v>34</v>
+      </c>
+      <c r="AH892">
+        <v>87</v>
+      </c>
+      <c r="AI892">
+        <v>43</v>
       </c>
     </row>
     <row r="893" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>892</v>
+      </c>
+      <c r="B893">
+        <v>1</v>
+      </c>
+      <c r="C893" s="1">
+        <v>45967</v>
+      </c>
+      <c r="D893" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="E893" s="2">
+        <f t="shared" si="61"/>
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="F893" t="s">
+        <v>59</v>
+      </c>
+      <c r="G893" t="s">
+        <v>101</v>
+      </c>
+      <c r="H893" t="s">
+        <v>54</v>
+      </c>
+      <c r="I893" t="s">
+        <v>61</v>
+      </c>
+      <c r="J893" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q893">
+        <v>1439</v>
+      </c>
+      <c r="R893">
+        <v>47</v>
+      </c>
+      <c r="S893">
+        <v>6</v>
+      </c>
+      <c r="T893" t="s">
+        <v>65</v>
+      </c>
+      <c r="U893">
+        <v>16456</v>
+      </c>
+      <c r="V893">
+        <v>1</v>
+      </c>
       <c r="AC893">
         <f t="shared" si="65"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD893">
         <f t="shared" si="66"/>
@@ -78859,6 +79300,565 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
+      <c r="AF893">
+        <v>-1.97</v>
+      </c>
+      <c r="AG893">
+        <v>33</v>
+      </c>
+      <c r="AH893">
+        <v>66</v>
+      </c>
+      <c r="AI893">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="894" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>893</v>
+      </c>
+      <c r="B894">
+        <v>1</v>
+      </c>
+      <c r="C894" s="1">
+        <v>45967</v>
+      </c>
+      <c r="D894" s="2">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="E894" s="2">
+        <f t="shared" si="61"/>
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="F894" t="s">
+        <v>50</v>
+      </c>
+      <c r="G894" t="s">
+        <v>96</v>
+      </c>
+      <c r="H894" t="s">
+        <v>54</v>
+      </c>
+      <c r="I894" t="s">
+        <v>52</v>
+      </c>
+      <c r="J894" t="s">
+        <v>53</v>
+      </c>
+      <c r="K894">
+        <v>3</v>
+      </c>
+      <c r="L894">
+        <v>0</v>
+      </c>
+      <c r="M894">
+        <v>4</v>
+      </c>
+      <c r="N894">
+        <v>11</v>
+      </c>
+      <c r="O894">
+        <v>6</v>
+      </c>
+      <c r="P894">
+        <v>5</v>
+      </c>
+      <c r="Q894">
+        <v>1444</v>
+      </c>
+      <c r="R894">
+        <v>80</v>
+      </c>
+      <c r="S894">
+        <v>42</v>
+      </c>
+      <c r="T894" t="s">
+        <v>63</v>
+      </c>
+      <c r="U894">
+        <v>16400</v>
+      </c>
+      <c r="V894">
+        <v>1</v>
+      </c>
+      <c r="AA894" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC894">
+        <f>IF(C894=C893, AC893+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD894">
+        <f>IF(T894="Loss",AD893+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE894">
+        <f>IF(T894="Win", AE893+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF894">
+        <v>6.39</v>
+      </c>
+      <c r="AG894">
+        <v>27</v>
+      </c>
+      <c r="AH894">
+        <v>83</v>
+      </c>
+      <c r="AI894">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="895" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>894</v>
+      </c>
+      <c r="B895">
+        <v>1</v>
+      </c>
+      <c r="C895" s="1">
+        <v>45970</v>
+      </c>
+      <c r="D895" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E895" s="2">
+        <f t="shared" si="61"/>
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="F895" t="s">
+        <v>59</v>
+      </c>
+      <c r="G895" t="s">
+        <v>96</v>
+      </c>
+      <c r="H895" t="s">
+        <v>60</v>
+      </c>
+      <c r="I895" t="s">
+        <v>87</v>
+      </c>
+      <c r="J895" t="s">
+        <v>57</v>
+      </c>
+      <c r="K895">
+        <v>0</v>
+      </c>
+      <c r="L895">
+        <v>1</v>
+      </c>
+      <c r="M895">
+        <v>9</v>
+      </c>
+      <c r="N895">
+        <v>4</v>
+      </c>
+      <c r="O895">
+        <v>2</v>
+      </c>
+      <c r="P895">
+        <v>6</v>
+      </c>
+      <c r="Q895">
+        <v>659</v>
+      </c>
+      <c r="R895">
+        <v>28</v>
+      </c>
+      <c r="S895">
+        <v>75</v>
+      </c>
+      <c r="T895" t="s">
+        <v>58</v>
+      </c>
+      <c r="U895">
+        <v>16750</v>
+      </c>
+      <c r="V895">
+        <v>5</v>
+      </c>
+      <c r="AC895">
+        <f>IF(C895=C894, AC894+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD895">
+        <f>IF(T895="Loss",AD894+1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE895">
+        <f>IF(T895="Win", AE894+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF895">
+        <v>-3.47</v>
+      </c>
+      <c r="AG895">
+        <v>23</v>
+      </c>
+      <c r="AH895">
+        <v>56</v>
+      </c>
+      <c r="AI895">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="896" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>895</v>
+      </c>
+      <c r="B896">
+        <v>1</v>
+      </c>
+      <c r="C896" s="1">
+        <v>45970</v>
+      </c>
+      <c r="D896" s="2">
+        <v>0.86319444444444449</v>
+      </c>
+      <c r="E896" s="2">
+        <f t="shared" si="61"/>
+        <v>0.90486111111111112</v>
+      </c>
+      <c r="F896" t="s">
+        <v>59</v>
+      </c>
+      <c r="G896" t="s">
+        <v>96</v>
+      </c>
+      <c r="I896" t="s">
+        <v>104</v>
+      </c>
+      <c r="J896" t="s">
+        <v>57</v>
+      </c>
+      <c r="K896">
+        <v>7</v>
+      </c>
+      <c r="L896">
+        <v>4</v>
+      </c>
+      <c r="M896">
+        <v>10</v>
+      </c>
+      <c r="N896">
+        <v>2</v>
+      </c>
+      <c r="O896">
+        <v>1</v>
+      </c>
+      <c r="P896">
+        <v>5</v>
+      </c>
+      <c r="Q896">
+        <v>1157</v>
+      </c>
+      <c r="R896">
+        <v>50</v>
+      </c>
+      <c r="S896">
+        <v>11</v>
+      </c>
+      <c r="T896" t="s">
+        <v>58</v>
+      </c>
+      <c r="U896">
+        <v>16454</v>
+      </c>
+      <c r="V896">
+        <v>5</v>
+      </c>
+      <c r="AC896">
+        <f>IF(C896=C895, AC895+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD896">
+        <f>IF(T896="Loss",AD895+1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AE896">
+        <f>IF(T896="Win", AE895+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF896">
+        <v>-7.88</v>
+      </c>
+      <c r="AG896">
+        <v>33</v>
+      </c>
+      <c r="AH896">
+        <v>56</v>
+      </c>
+      <c r="AI896">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="897" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>896</v>
+      </c>
+      <c r="B897">
+        <v>1</v>
+      </c>
+      <c r="C897" s="1">
+        <v>45970</v>
+      </c>
+      <c r="D897" s="2">
+        <v>0.90069444444444446</v>
+      </c>
+      <c r="E897" s="2">
+        <f t="shared" si="61"/>
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="F897" t="s">
+        <v>50</v>
+      </c>
+      <c r="G897" t="s">
+        <v>101</v>
+      </c>
+      <c r="H897" t="s">
+        <v>60</v>
+      </c>
+      <c r="I897" t="s">
+        <v>61</v>
+      </c>
+      <c r="J897" t="s">
+        <v>53</v>
+      </c>
+      <c r="K897">
+        <v>8</v>
+      </c>
+      <c r="L897">
+        <v>2</v>
+      </c>
+      <c r="M897">
+        <v>8</v>
+      </c>
+      <c r="N897">
+        <v>10</v>
+      </c>
+      <c r="O897">
+        <v>2</v>
+      </c>
+      <c r="P897">
+        <v>6</v>
+      </c>
+      <c r="Q897">
+        <v>1684</v>
+      </c>
+      <c r="R897">
+        <v>70</v>
+      </c>
+      <c r="S897">
+        <v>33</v>
+      </c>
+      <c r="T897" t="s">
+        <v>63</v>
+      </c>
+      <c r="U897">
+        <v>16147</v>
+      </c>
+      <c r="V897">
+        <v>4</v>
+      </c>
+      <c r="AC897">
+        <f>IF(C897=C896, AC896+1, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="AD897">
+        <f>IF(T897="Loss",AD896+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE897">
+        <f>IF(T897="Win", AE896+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF897">
+        <v>-1.64</v>
+      </c>
+      <c r="AG897">
+        <v>44</v>
+      </c>
+      <c r="AH897">
+        <v>85</v>
+      </c>
+      <c r="AI897">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="898" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>897</v>
+      </c>
+      <c r="B898">
+        <v>1</v>
+      </c>
+      <c r="C898" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D898" s="2">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="E898" s="2">
+        <f>D898 + 1/24</f>
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="F898" t="s">
+        <v>59</v>
+      </c>
+      <c r="G898" t="s">
+        <v>97</v>
+      </c>
+      <c r="I898" t="s">
+        <v>64</v>
+      </c>
+      <c r="J898" t="s">
+        <v>57</v>
+      </c>
+      <c r="K898">
+        <v>8</v>
+      </c>
+      <c r="L898">
+        <v>4</v>
+      </c>
+      <c r="M898">
+        <v>9</v>
+      </c>
+      <c r="N898">
+        <v>3</v>
+      </c>
+      <c r="O898">
+        <v>1</v>
+      </c>
+      <c r="P898">
+        <v>7</v>
+      </c>
+      <c r="Q898">
+        <v>1188</v>
+      </c>
+      <c r="R898">
+        <v>54</v>
+      </c>
+      <c r="S898">
+        <v>72</v>
+      </c>
+      <c r="T898" t="s">
+        <v>58</v>
+      </c>
+      <c r="U898">
+        <v>16492</v>
+      </c>
+      <c r="V898">
+        <v>1</v>
+      </c>
+      <c r="AC898" s="5">
+        <f>IF(C898=C897, AC897+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD898" s="5">
+        <f>IF(T898="Loss",AD897+1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE898" s="5">
+        <f>IF(T898="Win", AE897+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF898" s="5">
+        <v>-1.83</v>
+      </c>
+      <c r="AG898" s="5">
+        <v>39</v>
+      </c>
+      <c r="AH898" s="5">
+        <v>78</v>
+      </c>
+      <c r="AI898" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="899" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>898</v>
+      </c>
+      <c r="B899">
+        <v>1</v>
+      </c>
+      <c r="C899" s="1">
+        <v>45971</v>
+      </c>
+      <c r="D899" s="2">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="E899" s="2">
+        <f>D899 + 1/24</f>
+        <v>0.86180555555555549</v>
+      </c>
+      <c r="F899" t="s">
+        <v>59</v>
+      </c>
+      <c r="G899" t="s">
+        <v>101</v>
+      </c>
+      <c r="H899" t="s">
+        <v>54</v>
+      </c>
+      <c r="I899" t="s">
+        <v>100</v>
+      </c>
+      <c r="J899" t="s">
+        <v>57</v>
+      </c>
+      <c r="K899">
+        <v>4</v>
+      </c>
+      <c r="L899">
+        <v>3</v>
+      </c>
+      <c r="M899">
+        <v>10</v>
+      </c>
+      <c r="N899">
+        <v>5</v>
+      </c>
+      <c r="O899">
+        <v>2</v>
+      </c>
+      <c r="P899">
+        <v>8</v>
+      </c>
+      <c r="Q899">
+        <v>1183</v>
+      </c>
+      <c r="R899">
+        <v>49</v>
+      </c>
+      <c r="S899">
+        <v>33</v>
+      </c>
+      <c r="T899" t="s">
+        <v>63</v>
+      </c>
+      <c r="U899">
+        <v>16032</v>
+      </c>
+      <c r="V899">
+        <v>1</v>
+      </c>
+      <c r="AC899" s="5">
+        <f>IF(C899=C898, AC898+1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="AD899" s="5">
+        <f>IF(T899="Loss",AD898+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE899" s="5">
+        <f>IF(T899="Win", AE898+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF899" s="5"/>
+      <c r="AG899" s="5"/>
+      <c r="AH899" s="5"/>
+      <c r="AI899" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/xlsx/CounterStrike2.xlsx
+++ b/datasets/xlsx/CounterStrike2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D205A97F-770C-4183-9333-2F8731CA943E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1A27E0-D3F1-491E-833D-A2854DC4F08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5593" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5617" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -592,8 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}" name="MainTable" displayName="MainTable" ref="A1:AI899" totalsRowShown="0">
-  <autoFilter ref="A1:AI899" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}" name="MainTable" displayName="MainTable" ref="A1:AI903" totalsRowShown="0">
+  <autoFilter ref="A1:AI903" xr:uid="{F76B0D88-E146-4F78-8247-B2C76B2DA893}"/>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{F242931A-789C-4FBB-B822-B98BDC16035B}" name="ID"/>
     <tableColumn id="33" xr3:uid="{FCC59173-429E-4F7A-8FB8-03CC405E84A0}" name="PlayerID"/>
@@ -947,11 +947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI899"/>
+  <dimension ref="A1:AI903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A884" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V900" sqref="V900"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A887" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U903" sqref="U903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74065,7 +74065,7 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="E837" s="2">
-        <f t="shared" ref="E837:E898" si="61">D837 + 1/24</f>
+        <f t="shared" ref="E837:E897" si="61">D837 + 1/24</f>
         <v>0.85902777777777772</v>
       </c>
       <c r="F837" t="s">
@@ -79213,6 +79213,12 @@
       <c r="V892">
         <v>1</v>
       </c>
+      <c r="W892">
+        <v>1.43</v>
+      </c>
+      <c r="AB892">
+        <v>75</v>
+      </c>
       <c r="AC892">
         <f t="shared" si="65"/>
         <v>1</v>
@@ -79288,6 +79294,12 @@
       <c r="V893">
         <v>1</v>
       </c>
+      <c r="W893">
+        <v>0.87</v>
+      </c>
+      <c r="AB893">
+        <v>70</v>
+      </c>
       <c r="AC893">
         <f t="shared" si="65"/>
         <v>1</v>
@@ -79381,19 +79393,25 @@
       <c r="V894">
         <v>1</v>
       </c>
+      <c r="W894">
+        <v>1.29</v>
+      </c>
       <c r="AA894" t="s">
         <v>40</v>
       </c>
+      <c r="AB894">
+        <v>72.2</v>
+      </c>
       <c r="AC894">
-        <f>IF(C894=C893, AC893+1, 1)</f>
+        <f t="shared" ref="AC894:AC899" si="68">IF(C894=C893, AC893+1, 1)</f>
         <v>2</v>
       </c>
       <c r="AD894">
-        <f>IF(T894="Loss",AD893+1,0)</f>
+        <f t="shared" ref="AD894:AD899" si="69">IF(T894="Loss",AD893+1,0)</f>
         <v>0</v>
       </c>
       <c r="AE894">
-        <f>IF(T894="Win", AE893+1, 0)</f>
+        <f t="shared" ref="AE894:AE899" si="70">IF(T894="Win", AE893+1, 0)</f>
         <v>1</v>
       </c>
       <c r="AF894">
@@ -79477,16 +79495,22 @@
       <c r="V895">
         <v>5</v>
       </c>
+      <c r="W895">
+        <v>0.42</v>
+      </c>
+      <c r="AB895">
+        <v>60.9</v>
+      </c>
       <c r="AC895">
-        <f>IF(C895=C894, AC894+1, 1)</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AD895">
-        <f>IF(T895="Loss",AD894+1,0)</f>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="AE895">
-        <f>IF(T895="Win", AE894+1, 0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AF895">
@@ -79567,16 +79591,22 @@
       <c r="V896">
         <v>5</v>
       </c>
+      <c r="W896">
+        <v>0.67</v>
+      </c>
+      <c r="AB896">
+        <v>65.2</v>
+      </c>
       <c r="AC896">
-        <f>IF(C896=C895, AC895+1, 1)</f>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="AD896">
-        <f>IF(T896="Loss",AD895+1,0)</f>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="AE896">
-        <f>IF(T896="Win", AE895+1, 0)</f>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="AF896">
@@ -79660,16 +79690,22 @@
       <c r="V897">
         <v>4</v>
       </c>
+      <c r="W897">
+        <v>1.19</v>
+      </c>
+      <c r="AB897">
+        <v>75</v>
+      </c>
       <c r="AC897">
-        <f>IF(C897=C896, AC896+1, 1)</f>
+        <f t="shared" si="68"/>
         <v>3</v>
       </c>
       <c r="AD897">
-        <f>IF(T897="Loss",AD896+1,0)</f>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AE897">
-        <f>IF(T897="Win", AE896+1, 0)</f>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="AF897">
@@ -79750,28 +79786,34 @@
       <c r="V898">
         <v>1</v>
       </c>
-      <c r="AC898" s="5">
-        <f>IF(C898=C897, AC897+1, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="AD898" s="5">
-        <f>IF(T898="Loss",AD897+1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AE898" s="5">
-        <f>IF(T898="Win", AE897+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF898" s="5">
+      <c r="W898">
+        <v>0.77</v>
+      </c>
+      <c r="AB898">
+        <v>63.6</v>
+      </c>
+      <c r="AC898">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="AD898">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="AE898">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AF898">
         <v>-1.83</v>
       </c>
-      <c r="AG898" s="5">
+      <c r="AG898">
         <v>39</v>
       </c>
-      <c r="AH898" s="5">
+      <c r="AH898">
         <v>78</v>
       </c>
-      <c r="AI898" s="5">
+      <c r="AI898">
         <v>63</v>
       </c>
     </row>
@@ -79843,22 +79885,361 @@
       <c r="V899">
         <v>1</v>
       </c>
-      <c r="AC899" s="5">
-        <f>IF(C899=C898, AC898+1, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="AD899" s="5">
-        <f>IF(T899="Loss",AD898+1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE899" s="5">
-        <f>IF(T899="Win", AE898+1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="AF899" s="5"/>
-      <c r="AG899" s="5"/>
-      <c r="AH899" s="5"/>
-      <c r="AI899" s="5"/>
+      <c r="W899">
+        <v>0.65</v>
+      </c>
+      <c r="AB899">
+        <v>66.7</v>
+      </c>
+      <c r="AC899">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="AD899">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="AE899">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>899</v>
+      </c>
+      <c r="B900">
+        <v>1</v>
+      </c>
+      <c r="C900" s="1">
+        <v>45972</v>
+      </c>
+      <c r="D900" s="2">
+        <v>0.85972222222222228</v>
+      </c>
+      <c r="E900" s="2">
+        <f>D900 + 1/24</f>
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="F900" t="s">
+        <v>59</v>
+      </c>
+      <c r="G900" t="s">
+        <v>101</v>
+      </c>
+      <c r="H900" t="s">
+        <v>60</v>
+      </c>
+      <c r="I900" t="s">
+        <v>61</v>
+      </c>
+      <c r="J900" t="s">
+        <v>57</v>
+      </c>
+      <c r="K900">
+        <v>16</v>
+      </c>
+      <c r="L900">
+        <v>3</v>
+      </c>
+      <c r="M900">
+        <v>6</v>
+      </c>
+      <c r="N900">
+        <v>5</v>
+      </c>
+      <c r="O900">
+        <v>5</v>
+      </c>
+      <c r="P900">
+        <v>12</v>
+      </c>
+      <c r="Q900">
+        <v>2036</v>
+      </c>
+      <c r="R900">
+        <v>72</v>
+      </c>
+      <c r="S900">
+        <v>52</v>
+      </c>
+      <c r="T900" t="s">
+        <v>63</v>
+      </c>
+      <c r="U900">
+        <v>16374</v>
+      </c>
+      <c r="V900">
+        <v>1</v>
+      </c>
+      <c r="AC900">
+        <f>IF(C900=C899, AC899+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD900">
+        <f>IF(T900="Loss",AD899+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE900">
+        <f>IF(T900="Win", AE899+1, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="AF900">
+        <v>-1.35</v>
+      </c>
+      <c r="AH900">
+        <v>76</v>
+      </c>
+      <c r="AI900">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="901" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>900</v>
+      </c>
+      <c r="B901">
+        <v>1</v>
+      </c>
+      <c r="C901" s="1">
+        <v>45974</v>
+      </c>
+      <c r="D901" s="2">
+        <v>0.79791666666666672</v>
+      </c>
+      <c r="E901" s="2">
+        <f>D901 + 1/24</f>
+        <v>0.83958333333333335</v>
+      </c>
+      <c r="F901" t="s">
+        <v>50</v>
+      </c>
+      <c r="G901" t="s">
+        <v>96</v>
+      </c>
+      <c r="H901" t="s">
+        <v>54</v>
+      </c>
+      <c r="I901" t="s">
+        <v>64</v>
+      </c>
+      <c r="J901" t="s">
+        <v>53</v>
+      </c>
+      <c r="K901">
+        <v>5</v>
+      </c>
+      <c r="L901">
+        <v>3</v>
+      </c>
+      <c r="M901">
+        <v>7</v>
+      </c>
+      <c r="N901">
+        <v>3</v>
+      </c>
+      <c r="O901">
+        <v>5</v>
+      </c>
+      <c r="P901">
+        <v>6</v>
+      </c>
+      <c r="Q901">
+        <v>1059</v>
+      </c>
+      <c r="R901">
+        <v>48</v>
+      </c>
+      <c r="S901">
+        <v>37</v>
+      </c>
+      <c r="T901" t="s">
+        <v>63</v>
+      </c>
+      <c r="U901">
+        <v>16585</v>
+      </c>
+      <c r="V901">
+        <v>5</v>
+      </c>
+      <c r="AC901">
+        <f>IF(C901=C900, AC900+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD901">
+        <f>IF(T901="Loss",AD900+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE901">
+        <f>IF(T901="Win", AE900+1, 0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>901</v>
+      </c>
+      <c r="B902">
+        <v>1</v>
+      </c>
+      <c r="C902" s="1">
+        <v>45976</v>
+      </c>
+      <c r="D902" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="E902" s="2">
+        <f>D902 + 1/24</f>
+        <v>0.87916666666666665</v>
+      </c>
+      <c r="F902" t="s">
+        <v>50</v>
+      </c>
+      <c r="G902" t="s">
+        <v>101</v>
+      </c>
+      <c r="H902" t="s">
+        <v>60</v>
+      </c>
+      <c r="I902" t="s">
+        <v>64</v>
+      </c>
+      <c r="J902" t="s">
+        <v>53</v>
+      </c>
+      <c r="K902">
+        <v>8</v>
+      </c>
+      <c r="L902">
+        <v>5</v>
+      </c>
+      <c r="M902">
+        <v>4</v>
+      </c>
+      <c r="N902">
+        <v>10</v>
+      </c>
+      <c r="O902">
+        <v>1</v>
+      </c>
+      <c r="P902">
+        <v>7</v>
+      </c>
+      <c r="Q902">
+        <v>2091</v>
+      </c>
+      <c r="R902">
+        <v>90</v>
+      </c>
+      <c r="S902">
+        <v>44</v>
+      </c>
+      <c r="T902" t="s">
+        <v>63</v>
+      </c>
+      <c r="U902">
+        <v>16926</v>
+      </c>
+      <c r="V902">
+        <v>1</v>
+      </c>
+      <c r="AC902">
+        <f>IF(C902=C901, AC901+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD902">
+        <f>IF(T902="Loss",AD901+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE902">
+        <f>IF(T902="Win", AE901+1, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>902</v>
+      </c>
+      <c r="B903">
+        <v>1</v>
+      </c>
+      <c r="C903" s="1">
+        <v>45978</v>
+      </c>
+      <c r="D903" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E903" s="2">
+        <f>D903 + 1/24</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F903" t="s">
+        <v>50</v>
+      </c>
+      <c r="G903" t="s">
+        <v>96</v>
+      </c>
+      <c r="H903" t="s">
+        <v>54</v>
+      </c>
+      <c r="I903" t="s">
+        <v>104</v>
+      </c>
+      <c r="J903" t="s">
+        <v>53</v>
+      </c>
+      <c r="K903">
+        <v>1</v>
+      </c>
+      <c r="L903">
+        <v>1</v>
+      </c>
+      <c r="M903">
+        <v>3</v>
+      </c>
+      <c r="N903">
+        <v>5</v>
+      </c>
+      <c r="O903">
+        <v>0</v>
+      </c>
+      <c r="P903">
+        <v>6</v>
+      </c>
+      <c r="Q903">
+        <v>566</v>
+      </c>
+      <c r="R903">
+        <v>31</v>
+      </c>
+      <c r="S903">
+        <v>33</v>
+      </c>
+      <c r="T903" t="s">
+        <v>63</v>
+      </c>
+      <c r="U903">
+        <v>17234</v>
+      </c>
+      <c r="V903">
+        <v>1</v>
+      </c>
+      <c r="AC903" s="5">
+        <f>IF(C903=C902, AC902+1, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="AD903" s="5">
+        <f>IF(T903="Loss",AD902+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE903" s="5">
+        <f>IF(T903="Win", AE902+1, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="AF903" s="5"/>
+      <c r="AG903" s="5"/>
+      <c r="AH903" s="5"/>
+      <c r="AI903" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
